--- a/libs/sinonimos.xlsx
+++ b/libs/sinonimos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1121">
   <si>
     <t>Nome Original</t>
   </si>
@@ -442,9 +442,6 @@
     <t>GAP ABSOLUTO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
   </si>
   <si>
-    <t>GARDE PORTHOS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
     <t>VIC GARDE D ARTAGNAN FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
   </si>
   <si>
@@ -1177,6 +1174,30 @@
     <t>VIC SPX NIMITZ FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
   </si>
   <si>
+    <t>ORGANON FIC FIA</t>
+  </si>
+  <si>
+    <t>TREND ETF NASDAQ 100 FUNDO DE INVESTIMENTO DE INDICE - INVESTIMENTO NO EXTERIOR</t>
+  </si>
+  <si>
+    <t>ATMOS VC FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO EM AÇÕES</t>
+  </si>
+  <si>
+    <t>NOVUS MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO ÁGORA</t>
+  </si>
+  <si>
+    <t>SOLANA EQUITY HEDGE IV FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>ITAÚ ALVORADA ULTRA FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>CL4 CAPITAL FUNDO DE INVESTIMENTO DE AÇÕES</t>
+  </si>
+  <si>
+    <t>OCEANA SELECTION 30 E FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO EM AÇÕES</t>
+  </si>
+  <si>
     <t>3 ILHAS MASTER FUNDO DE INVESTIMENTO EM AÇÕES</t>
   </si>
   <si>
@@ -1330,9 +1351,6 @@
     <t>GAP ABSOLUTO MASTER FUNDO DE INVESTIMENTO MULTIMERCADO</t>
   </si>
   <si>
-    <t>GARDE PORTHOS MASTER FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
     <t>GARDE VALLON FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
   </si>
   <si>
@@ -2159,9 +2177,6 @@
   </si>
   <si>
     <t>01.823.373/0001-25</t>
-  </si>
-  <si>
-    <t>35.491.437/0001-50</t>
   </si>
   <si>
     <t>23.732.207/0001-56</t>
@@ -2897,6 +2912,27 @@
     <t>24.140.182/0001-64</t>
   </si>
   <si>
+    <t>17.400.251/0001-66</t>
+  </si>
+  <si>
+    <t>35.578.672/0001-63</t>
+  </si>
+  <si>
+    <t>36.617.768/0001-56</t>
+  </si>
+  <si>
+    <t>40.209.746/0001-24</t>
+  </si>
+  <si>
+    <t>35.491.437/0001-50</t>
+  </si>
+  <si>
+    <t>23.591.953/0001-77</t>
+  </si>
+  <si>
+    <t>13.958.690/0001-38</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 Ilhas </t>
   </si>
   <si>
@@ -3081,9 +3117,6 @@
   </si>
   <si>
     <t>GAP Absoluto</t>
-  </si>
-  <si>
-    <t>Garde Porthos</t>
   </si>
   <si>
     <t>Garde Vallon</t>
@@ -3332,6 +3365,18 @@
   </si>
   <si>
     <t>Asa Ações</t>
+  </si>
+  <si>
+    <t>Organon</t>
+  </si>
+  <si>
+    <t>Nasdaq Passivo</t>
+  </si>
+  <si>
+    <t>Itaú Alvorada</t>
+  </si>
+  <si>
+    <t>CL4 Capital</t>
   </si>
   <si>
     <t>Neo Future</t>
@@ -3692,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B959"/>
+  <dimension ref="A1:B971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3711,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3719,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3727,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3735,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3743,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3751,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3759,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3767,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3775,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3783,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3791,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3799,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3807,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3815,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3823,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3831,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3839,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3847,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3855,7 +3900,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3863,7 +3908,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3871,7 +3916,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3879,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3887,7 +3932,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3895,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3903,7 +3948,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3911,7 +3956,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3919,7 +3964,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3927,7 +3972,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3935,7 +3980,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3943,7 +3988,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3951,7 +3996,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3959,7 +4004,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3967,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3975,7 +4020,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3983,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3991,7 +4036,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3999,7 +4044,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4007,7 +4052,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4015,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4023,7 +4068,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4031,7 +4076,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4039,7 +4084,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4047,7 +4092,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4055,7 +4100,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4063,7 +4108,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4071,7 +4116,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4079,7 +4124,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4087,7 +4132,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4095,7 +4140,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4103,7 +4148,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4111,7 +4156,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4119,7 +4164,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4127,7 +4172,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4135,7 +4180,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4143,7 +4188,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4151,7 +4196,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4159,7 +4204,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4167,7 +4212,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4175,7 +4220,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4183,7 +4228,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4191,7 +4236,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4199,7 +4244,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4207,7 +4252,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4215,7 +4260,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4223,7 +4268,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4231,7 +4276,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4239,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4247,7 +4292,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4255,7 +4300,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4263,7 +4308,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4271,7 +4316,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4279,7 +4324,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4287,7 +4332,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4295,7 +4340,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4303,7 +4348,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4311,7 +4356,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4319,7 +4364,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4327,7 +4372,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4335,7 +4380,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4343,7 +4388,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4351,7 +4396,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4359,7 +4404,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4367,7 +4412,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4375,7 +4420,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4383,7 +4428,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4391,7 +4436,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4399,7 +4444,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4407,7 +4452,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4415,7 +4460,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4423,7 +4468,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4431,7 +4476,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4439,7 +4484,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4447,7 +4492,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4455,7 +4500,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4463,7 +4508,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4471,7 +4516,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4479,7 +4524,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4487,7 +4532,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4495,7 +4540,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4503,7 +4548,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4511,7 +4556,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4519,7 +4564,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4527,7 +4572,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4535,7 +4580,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4543,7 +4588,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4551,7 +4596,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4559,7 +4604,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4567,7 +4612,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4575,7 +4620,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4583,7 +4628,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4591,7 +4636,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4599,7 +4644,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4607,7 +4652,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4615,7 +4660,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4623,7 +4668,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4631,7 +4676,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4639,7 +4684,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4647,7 +4692,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4655,7 +4700,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4663,7 +4708,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4671,7 +4716,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4679,7 +4724,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4687,7 +4732,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4695,7 +4740,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4703,7 +4748,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4711,7 +4756,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4719,7 +4764,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4727,7 +4772,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4735,7 +4780,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4743,7 +4788,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4751,7 +4796,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4759,7 +4804,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4767,7 +4812,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4775,7 +4820,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4783,7 +4828,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4791,7 +4836,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4799,7 +4844,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4807,7 +4852,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4815,7 +4860,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4823,7 +4868,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4831,7 +4876,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4839,7 +4884,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4847,7 +4892,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4855,7 +4900,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4863,7 +4908,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4871,7 +4916,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4879,7 +4924,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4887,7 +4932,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4895,7 +4940,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4903,7 +4948,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4911,7 +4956,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4919,7 +4964,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4927,7 +4972,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4935,7 +4980,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4943,7 +4988,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4951,7 +4996,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4959,7 +5004,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4967,7 +5012,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>1031</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4975,7 +5020,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4983,7 +5028,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4991,7 +5036,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4999,7 +5044,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5007,7 +5052,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>995</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5015,7 +5060,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5023,7 +5068,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5031,7 +5076,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5039,7 +5084,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5047,7 +5092,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5055,7 +5100,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5063,7 +5108,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5071,7 +5116,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5079,7 +5124,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5087,7 +5132,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5095,7 +5140,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>989</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5103,7 +5148,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5111,7 +5156,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5119,7 +5164,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5127,7 +5172,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5135,7 +5180,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5143,7 +5188,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5151,7 +5196,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5159,7 +5204,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5167,7 +5212,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5175,7 +5220,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5183,7 +5228,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5191,7 +5236,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5199,7 +5244,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5207,7 +5252,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5215,7 +5260,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5223,7 +5268,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5231,7 +5276,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>1043</v>
+        <v>986</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5239,7 +5284,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>974</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5247,7 +5292,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5255,7 +5300,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5263,7 +5308,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5271,7 +5316,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5279,7 +5324,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>1045</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5287,7 +5332,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5295,7 +5340,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5303,7 +5348,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5311,7 +5356,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5319,7 +5364,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5327,7 +5372,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5335,7 +5380,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5343,7 +5388,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>1000</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5351,7 +5396,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5359,7 +5404,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5367,7 +5412,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5375,7 +5420,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5383,7 +5428,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5391,7 +5436,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5399,7 +5444,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5407,7 +5452,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5415,7 +5460,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5423,7 +5468,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5431,7 +5476,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5439,7 +5484,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5447,7 +5492,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5455,7 +5500,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5463,7 +5508,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5471,7 +5516,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5479,7 +5524,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5487,7 +5532,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5495,7 +5540,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>1058</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5503,7 +5548,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>1002</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5511,7 +5556,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5519,7 +5564,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5527,7 +5572,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5535,7 +5580,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>1060</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5543,7 +5588,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>1003</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5551,7 +5596,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>1061</v>
+        <v>998</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5559,7 +5604,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5567,7 +5612,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>1007</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5575,7 +5620,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5583,7 +5628,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5591,7 +5636,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5599,7 +5644,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5607,7 +5652,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5615,7 +5660,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5623,7 +5668,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5631,7 +5676,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>1065</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5639,7 +5684,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5647,7 +5692,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>1005</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5655,7 +5700,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5663,7 +5708,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5671,7 +5716,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5679,7 +5724,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5687,7 +5732,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5695,7 +5740,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5703,7 +5748,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5711,7 +5756,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>1068</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5719,7 +5764,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5727,7 +5772,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1013</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5735,7 +5780,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1069</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5743,7 +5788,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5751,7 +5796,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1017</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5759,7 +5804,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5767,7 +5812,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5775,7 +5820,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5783,7 +5828,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5791,7 +5836,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5799,7 +5844,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5807,7 +5852,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5815,7 +5860,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5823,7 +5868,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5831,7 +5876,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5839,7 +5884,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5847,7 +5892,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5855,7 +5900,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5863,7 +5908,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5871,7 +5916,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5879,7 +5924,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5887,7 +5932,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5895,7 +5940,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5903,7 +5948,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5911,7 +5956,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5919,7 +5964,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5927,7 +5972,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5935,7 +5980,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5943,7 +5988,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5951,7 +5996,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5959,7 +6004,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5967,7 +6012,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5975,7 +6020,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5983,7 +6028,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5991,7 +6036,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5999,7 +6044,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6007,7 +6052,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1080</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6015,7 +6060,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>989</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6023,7 +6068,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6031,7 +6076,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6039,7 +6084,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6047,7 +6092,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6055,7 +6100,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6063,7 +6108,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6071,7 +6116,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6079,7 +6124,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6087,7 +6132,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6095,7 +6140,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>1084</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6103,7 +6148,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6111,7 +6156,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6119,7 +6164,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6127,7 +6172,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6135,7 +6180,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6143,7 +6188,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6151,7 +6196,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6159,7 +6204,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6167,7 +6212,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>1007</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6175,7 +6220,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6183,7 +6228,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -6191,7 +6236,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6199,7 +6244,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6207,7 +6252,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6215,7 +6260,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6223,7 +6268,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6231,7 +6276,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6239,7 +6284,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -6247,7 +6292,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>1088</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -6255,7 +6300,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>1008</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6263,7 +6308,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>1089</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -6271,7 +6316,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6279,7 +6324,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -6287,7 +6332,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -6295,7 +6340,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>982</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -6303,7 +6348,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>993</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -6311,7 +6356,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -6319,7 +6364,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>1005</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6327,7 +6372,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6335,7 +6380,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6343,7 +6388,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6351,7 +6396,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>991</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6359,7 +6404,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>1067</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6367,7 +6412,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>1017</v>
+        <v>977</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6375,7 +6420,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>965</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6383,7 +6428,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>1071</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6391,7 +6436,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6399,7 +6444,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>1091</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6407,7 +6452,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>997</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6415,7 +6460,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>1092</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6423,7 +6468,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6431,7 +6476,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>999</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6439,7 +6484,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>1093</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6447,7 +6492,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>1007</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6455,7 +6500,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>1038</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6463,7 +6508,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>1094</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6479,7 +6524,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>1002</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6487,7 +6532,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>1014</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6495,7 +6540,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>1095</v>
+        <v>997</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6503,7 +6548,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6511,7 +6556,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>972</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6519,7 +6564,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>1031</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6527,7 +6572,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>1067</v>
+        <v>982</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6535,7 +6580,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>970</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6543,7 +6588,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1040</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6551,7 +6596,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1085</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6559,7 +6604,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1096</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6567,7 +6612,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>996</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6575,7 +6620,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6583,7 +6628,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>989</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6591,7 +6636,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1097</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6599,7 +6644,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>1045</v>
+        <v>989</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6607,7 +6652,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>977</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6615,7 +6660,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1067</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6623,7 +6668,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>1082</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6631,7 +6676,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6639,7 +6684,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1071</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6647,7 +6692,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6655,7 +6700,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6663,7 +6708,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>966</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6671,7 +6716,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1099</v>
+        <v>997</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6679,7 +6724,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>985</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6687,7 +6732,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6695,7 +6740,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1101</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6703,7 +6748,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>996</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6711,7 +6756,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1102</v>
+        <v>982</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6719,7 +6764,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>970</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6727,7 +6772,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1103</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6735,7 +6780,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1027</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6743,7 +6788,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1104</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6751,7 +6796,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6759,7 +6804,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6767,7 +6812,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>972</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6775,7 +6820,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6783,7 +6828,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1054</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6791,7 +6836,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>960</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6799,7 +6844,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6807,7 +6852,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>962</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6815,7 +6860,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6823,7 +6868,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>964</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6831,7 +6876,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>965</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6839,7 +6884,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>966</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6847,7 +6892,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6855,7 +6900,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6863,7 +6908,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6871,7 +6916,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6879,7 +6924,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6887,7 +6932,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6895,7 +6940,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6903,7 +6948,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6911,7 +6956,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6919,7 +6964,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6927,7 +6972,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6935,7 +6980,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6943,7 +6988,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6951,7 +6996,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6959,7 +7004,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6967,7 +7012,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6975,7 +7020,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6983,7 +7028,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6991,7 +7036,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6999,7 +7044,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7007,7 +7052,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7015,7 +7060,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7023,7 +7068,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7031,7 +7076,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7039,7 +7084,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7047,7 +7092,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7055,7 +7100,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7063,7 +7108,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7071,7 +7116,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7079,7 +7124,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7087,7 +7132,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7095,7 +7140,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7103,7 +7148,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7111,7 +7156,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7119,7 +7164,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>972</v>
+        <v>993</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7127,7 +7172,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -7135,7 +7180,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7143,7 +7188,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -7151,7 +7196,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -7159,7 +7204,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -7167,7 +7212,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -7175,7 +7220,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1019</v>
+        <v>984</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7183,7 +7228,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -7191,7 +7236,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7199,7 +7244,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -7207,7 +7252,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7215,7 +7260,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -7223,7 +7268,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7231,7 +7276,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -7239,7 +7284,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -7247,7 +7292,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -7255,7 +7300,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7263,7 +7308,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -7271,7 +7316,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -7279,7 +7324,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -7287,7 +7332,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -7295,7 +7340,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -7303,7 +7348,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -7311,7 +7356,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>995</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -7319,7 +7364,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>995</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -7327,7 +7372,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -7335,7 +7380,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -7343,7 +7388,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -7351,7 +7396,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -7359,7 +7404,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1035</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -7367,7 +7412,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -7375,7 +7420,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>989</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -7383,7 +7428,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>989</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -7391,7 +7436,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -7399,7 +7444,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7407,7 +7452,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -7415,7 +7460,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1092</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -7423,7 +7468,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1040</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -7431,7 +7476,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -7439,7 +7484,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -7447,7 +7492,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -7455,7 +7500,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -7463,7 +7508,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1043</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -7471,7 +7516,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>974</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -7479,7 +7524,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7487,7 +7532,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7495,7 +7540,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -7503,7 +7548,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1000</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -7511,7 +7556,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1000</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7519,7 +7564,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>1046</v>
+        <v>986</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7527,7 +7572,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7535,7 +7580,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7543,7 +7588,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -7551,7 +7596,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1050</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -7559,7 +7604,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1050</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7567,7 +7612,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -7575,7 +7620,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7583,7 +7628,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7591,7 +7636,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -7599,7 +7644,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7607,7 +7652,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1105</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -7615,7 +7660,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7623,7 +7668,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7631,7 +7676,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7639,7 +7684,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1002</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7647,7 +7692,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7655,7 +7700,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>1060</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7663,7 +7708,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>1003</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7671,7 +7716,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7679,7 +7724,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>986</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7687,7 +7732,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7695,7 +7740,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7703,7 +7748,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7711,7 +7756,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>1064</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7719,7 +7764,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7727,7 +7772,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>1065</v>
+        <v>998</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7735,7 +7780,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7743,7 +7788,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>1005</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7751,7 +7796,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7759,7 +7804,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7767,7 +7812,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7775,7 +7820,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7783,7 +7828,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7791,7 +7836,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>1069</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7799,7 +7844,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>1017</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7807,7 +7852,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>1017</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7815,7 +7860,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7823,7 +7868,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7831,7 +7876,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7839,7 +7884,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7847,7 +7892,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7855,7 +7900,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7863,7 +7908,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7871,7 +7916,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7879,7 +7924,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7887,7 +7932,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7895,7 +7940,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7903,7 +7948,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7911,7 +7956,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7919,7 +7964,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7927,7 +7972,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7935,7 +7980,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>1071</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7943,7 +7988,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7951,7 +7996,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7959,7 +8004,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7967,7 +8012,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>989</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7975,7 +8020,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7983,7 +8028,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7991,7 +8036,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7999,7 +8044,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -8007,7 +8052,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -8015,7 +8060,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>1083</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -8023,7 +8068,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -8031,7 +8076,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>1014</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -8039,7 +8084,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>1007</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -8047,7 +8092,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>1007</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -8055,7 +8100,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>1007</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -8063,7 +8108,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>1007</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -8071,7 +8116,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>1007</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -8079,7 +8124,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>1085</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -8087,7 +8132,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>1086</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -8095,7 +8140,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>1087</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -8103,7 +8148,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>1088</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -8111,7 +8156,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -8119,7 +8164,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -8127,7 +8172,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>997</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -8135,7 +8180,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>999</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -8143,7 +8188,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -8151,7 +8196,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>1014</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -8159,7 +8204,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>1095</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -8167,7 +8212,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>985</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -8175,7 +8220,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>1096</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -8183,7 +8228,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>1098</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -8191,7 +8236,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>1071</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -8199,7 +8244,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>967</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -8207,7 +8252,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>966</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -8215,7 +8260,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>1099</v>
+        <v>997</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -8223,7 +8268,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -8231,7 +8276,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -8239,7 +8284,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>996</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -8247,7 +8292,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>1102</v>
+        <v>979</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -8255,7 +8300,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>1103</v>
+        <v>978</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -8263,7 +8308,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -8271,7 +8316,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>989</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -8279,7 +8324,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>989</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -8287,7 +8332,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>1054</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -8295,7 +8340,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>960</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -8303,7 +8348,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>961</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -8311,7 +8356,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>962</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -8319,7 +8364,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>963</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -8327,7 +8372,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>964</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -8335,7 +8380,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>965</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -8343,7 +8388,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -8351,7 +8396,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -8359,7 +8404,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -8367,7 +8412,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8375,7 +8420,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -8383,7 +8428,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -8391,7 +8436,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -8399,7 +8444,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -8407,7 +8452,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -8415,7 +8460,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -8423,7 +8468,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -8431,7 +8476,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8439,7 +8484,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -8447,7 +8492,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -8455,7 +8500,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8463,7 +8508,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -8471,7 +8516,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -8479,7 +8524,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -8487,7 +8532,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8495,7 +8540,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8503,7 +8548,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -8511,7 +8556,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8519,7 +8564,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8527,7 +8572,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -8535,7 +8580,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8543,7 +8588,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8551,7 +8596,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8559,7 +8604,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8567,7 +8612,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -8575,7 +8620,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8583,7 +8628,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8591,7 +8636,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -8599,7 +8644,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -8607,7 +8652,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -8615,7 +8660,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8623,7 +8668,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8631,7 +8676,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8639,7 +8684,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8647,7 +8692,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -8655,7 +8700,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8663,7 +8708,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8671,7 +8716,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8679,7 +8724,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8687,7 +8732,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8695,7 +8740,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -8703,7 +8748,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -8711,7 +8756,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8719,7 +8764,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -8727,7 +8772,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -8735,7 +8780,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8743,7 +8788,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -8751,7 +8796,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8759,7 +8804,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8767,7 +8812,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8775,7 +8820,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8783,7 +8828,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8791,7 +8836,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8799,7 +8844,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8807,7 +8852,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8815,7 +8860,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8823,7 +8868,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8831,7 +8876,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8839,7 +8884,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8847,7 +8892,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8855,7 +8900,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8863,7 +8908,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8871,7 +8916,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8879,7 +8924,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8887,7 +8932,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8895,7 +8940,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8903,7 +8948,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8911,7 +8956,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8919,7 +8964,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8927,7 +8972,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8935,7 +8980,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8943,7 +8988,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8951,7 +8996,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8959,7 +9004,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -8967,7 +9012,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8975,7 +9020,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8983,7 +9028,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8991,7 +9036,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8999,7 +9044,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -9007,7 +9052,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -9015,7 +9060,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -9023,7 +9068,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -9031,7 +9076,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -9039,7 +9084,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -9047,7 +9092,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -9055,7 +9100,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -9063,7 +9108,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -9071,7 +9116,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -9079,7 +9124,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -9087,7 +9132,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -9095,7 +9140,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -9103,7 +9148,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -9111,7 +9156,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -9119,7 +9164,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -9127,7 +9172,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -9135,7 +9180,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -9143,7 +9188,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -9151,7 +9196,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -9159,7 +9204,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -9167,7 +9212,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -9175,7 +9220,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -9183,7 +9228,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -9191,7 +9236,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -9199,7 +9244,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -9207,7 +9252,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -9215,7 +9260,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -9223,7 +9268,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -9231,7 +9276,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -9239,7 +9284,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -9247,7 +9292,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -9255,7 +9300,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -9263,7 +9308,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -9271,7 +9316,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -9279,7 +9324,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -9287,7 +9332,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>966</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -9295,7 +9340,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -9303,7 +9348,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -9311,7 +9356,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -9319,7 +9364,7 @@
         <v>703</v>
       </c>
       <c r="B703" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -9327,7 +9372,7 @@
         <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>991</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -9335,7 +9380,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -9343,7 +9388,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>991</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -9351,7 +9396,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -9359,7 +9404,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -9367,7 +9412,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -9375,7 +9420,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -9383,7 +9428,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -9391,7 +9436,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -9399,7 +9444,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -9407,7 +9452,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -9415,7 +9460,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -9423,7 +9468,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -9431,7 +9476,7 @@
         <v>717</v>
       </c>
       <c r="B717" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -9439,7 +9484,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -9447,7 +9492,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -9455,7 +9500,7 @@
         <v>720</v>
       </c>
       <c r="B720" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -9463,7 +9508,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -9471,7 +9516,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -9479,7 +9524,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -9487,7 +9532,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -9495,7 +9540,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -9503,7 +9548,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -9511,7 +9556,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -9519,7 +9564,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -9527,7 +9572,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -9535,7 +9580,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -9543,7 +9588,7 @@
         <v>731</v>
       </c>
       <c r="B731" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -9551,7 +9596,7 @@
         <v>732</v>
       </c>
       <c r="B732" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -9559,7 +9604,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>995</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -9567,7 +9612,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="s">
-        <v>995</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -9575,7 +9620,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="s">
-        <v>995</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -9583,7 +9628,7 @@
         <v>736</v>
       </c>
       <c r="B736" t="s">
-        <v>995</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -9591,7 +9636,7 @@
         <v>737</v>
       </c>
       <c r="B737" t="s">
-        <v>995</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -9599,7 +9644,7 @@
         <v>738</v>
       </c>
       <c r="B738" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -9607,7 +9652,7 @@
         <v>739</v>
       </c>
       <c r="B739" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -9615,7 +9660,7 @@
         <v>740</v>
       </c>
       <c r="B740" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -9623,7 +9668,7 @@
         <v>741</v>
       </c>
       <c r="B741" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -9631,7 +9676,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -9639,7 +9684,7 @@
         <v>743</v>
       </c>
       <c r="B743" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -9647,7 +9692,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -9655,7 +9700,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="s">
-        <v>989</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9663,7 +9708,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="s">
-        <v>989</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -9671,7 +9716,7 @@
         <v>747</v>
       </c>
       <c r="B747" t="s">
-        <v>989</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9679,7 +9724,7 @@
         <v>748</v>
       </c>
       <c r="B748" t="s">
-        <v>989</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9687,7 +9732,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -9695,7 +9740,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="s">
-        <v>1037</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -9703,7 +9748,7 @@
         <v>751</v>
       </c>
       <c r="B751" t="s">
-        <v>1038</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9711,7 +9756,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="s">
-        <v>1038</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9719,7 +9764,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="s">
-        <v>1038</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9727,7 +9772,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9735,7 +9780,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -9743,7 +9788,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -9751,7 +9796,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -9759,7 +9804,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -9767,7 +9812,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9775,7 +9820,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9783,7 +9828,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -9791,7 +9836,7 @@
         <v>762</v>
       </c>
       <c r="B762" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9799,7 +9844,7 @@
         <v>763</v>
       </c>
       <c r="B763" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -9807,7 +9852,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9815,7 +9860,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9823,7 +9868,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="s">
-        <v>974</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9831,7 +9876,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9839,7 +9884,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9847,7 +9892,7 @@
         <v>769</v>
       </c>
       <c r="B769" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9855,7 +9900,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9863,7 +9908,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9871,7 +9916,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="s">
-        <v>1000</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9879,7 +9924,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="s">
-        <v>1000</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9887,7 +9932,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="s">
-        <v>1000</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9895,7 +9940,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="s">
-        <v>1000</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9903,7 +9948,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="s">
-        <v>1000</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9911,7 +9956,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9919,7 +9964,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9927,7 +9972,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9935,7 +9980,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="s">
-        <v>1046</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9943,7 +9988,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9951,7 +9996,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9959,7 +10004,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -9967,7 +10012,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="s">
-        <v>1049</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -9975,7 +10020,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9983,7 +10028,7 @@
         <v>786</v>
       </c>
       <c r="B786" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -9991,7 +10036,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -9999,7 +10044,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -10007,7 +10052,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -10015,7 +10060,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="s">
-        <v>1052</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -10023,7 +10068,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -10031,7 +10076,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -10039,7 +10084,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -10047,7 +10092,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -10055,7 +10100,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="s">
-        <v>1105</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -10063,7 +10108,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -10071,7 +10116,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -10079,7 +10124,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -10087,7 +10132,7 @@
         <v>799</v>
       </c>
       <c r="B799" t="s">
-        <v>1002</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -10095,7 +10140,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="s">
-        <v>1059</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -10103,7 +10148,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -10111,7 +10156,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -10119,7 +10164,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="s">
-        <v>1060</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -10127,7 +10172,7 @@
         <v>804</v>
       </c>
       <c r="B804" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -10135,7 +10180,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="s">
-        <v>1061</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -10143,7 +10188,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="s">
-        <v>986</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -10151,7 +10196,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="s">
-        <v>1007</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -10159,7 +10204,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="s">
-        <v>1062</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -10167,7 +10212,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="s">
-        <v>1063</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -10175,7 +10220,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -10183,7 +10228,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="s">
-        <v>1065</v>
+        <v>998</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -10191,7 +10236,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="s">
-        <v>1065</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -10199,7 +10244,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -10207,7 +10252,7 @@
         <v>814</v>
       </c>
       <c r="B814" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -10215,7 +10260,7 @@
         <v>815</v>
       </c>
       <c r="B815" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -10223,7 +10268,7 @@
         <v>816</v>
       </c>
       <c r="B816" t="s">
-        <v>1005</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -10231,7 +10276,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="s">
-        <v>1005</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -10239,7 +10284,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -10247,7 +10292,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -10255,7 +10300,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -10263,7 +10308,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="s">
-        <v>1067</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -10271,7 +10316,7 @@
         <v>822</v>
       </c>
       <c r="B822" t="s">
-        <v>1067</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -10279,7 +10324,7 @@
         <v>823</v>
       </c>
       <c r="B823" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -10287,7 +10332,7 @@
         <v>824</v>
       </c>
       <c r="B824" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -10295,7 +10340,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -10303,7 +10348,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="s">
-        <v>1013</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -10311,7 +10356,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="s">
-        <v>1013</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -10319,7 +10364,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -10327,7 +10372,7 @@
         <v>829</v>
       </c>
       <c r="B829" t="s">
-        <v>1017</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -10335,7 +10380,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="s">
-        <v>1017</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -10343,7 +10388,7 @@
         <v>831</v>
       </c>
       <c r="B831" t="s">
-        <v>1070</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -10351,7 +10396,7 @@
         <v>832</v>
       </c>
       <c r="B832" t="s">
-        <v>1070</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -10359,7 +10404,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="s">
-        <v>1054</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -10367,7 +10412,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -10375,7 +10420,7 @@
         <v>835</v>
       </c>
       <c r="B835" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -10383,7 +10428,7 @@
         <v>836</v>
       </c>
       <c r="B836" t="s">
-        <v>1054</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -10391,7 +10436,7 @@
         <v>837</v>
       </c>
       <c r="B837" t="s">
-        <v>1054</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -10399,7 +10444,7 @@
         <v>838</v>
       </c>
       <c r="B838" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -10407,7 +10452,7 @@
         <v>839</v>
       </c>
       <c r="B839" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -10415,7 +10460,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -10423,7 +10468,7 @@
         <v>841</v>
       </c>
       <c r="B841" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -10431,7 +10476,7 @@
         <v>842</v>
       </c>
       <c r="B842" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -10439,7 +10484,7 @@
         <v>843</v>
       </c>
       <c r="B843" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -10447,7 +10492,7 @@
         <v>844</v>
       </c>
       <c r="B844" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -10455,7 +10500,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -10463,7 +10508,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -10471,7 +10516,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -10479,7 +10524,7 @@
         <v>848</v>
       </c>
       <c r="B848" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -10487,7 +10532,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -10495,7 +10540,7 @@
         <v>850</v>
       </c>
       <c r="B850" t="s">
-        <v>1074</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -10503,7 +10548,7 @@
         <v>851</v>
       </c>
       <c r="B851" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -10511,7 +10556,7 @@
         <v>852</v>
       </c>
       <c r="B852" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -10519,7 +10564,7 @@
         <v>853</v>
       </c>
       <c r="B853" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -10527,7 +10572,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -10535,7 +10580,7 @@
         <v>855</v>
       </c>
       <c r="B855" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -10543,7 +10588,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -10551,7 +10596,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -10559,7 +10604,7 @@
         <v>858</v>
       </c>
       <c r="B858" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -10567,7 +10612,7 @@
         <v>859</v>
       </c>
       <c r="B859" t="s">
-        <v>1071</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -10575,7 +10620,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -10583,7 +10628,7 @@
         <v>861</v>
       </c>
       <c r="B861" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -10591,7 +10636,7 @@
         <v>862</v>
       </c>
       <c r="B862" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -10599,7 +10644,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="s">
-        <v>989</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -10607,7 +10652,7 @@
         <v>864</v>
       </c>
       <c r="B864" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -10615,7 +10660,7 @@
         <v>865</v>
       </c>
       <c r="B865" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -10623,7 +10668,7 @@
         <v>866</v>
       </c>
       <c r="B866" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -10631,7 +10676,7 @@
         <v>867</v>
       </c>
       <c r="B867" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -10639,7 +10684,7 @@
         <v>868</v>
       </c>
       <c r="B868" t="s">
-        <v>1082</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -10647,7 +10692,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -10655,7 +10700,7 @@
         <v>870</v>
       </c>
       <c r="B870" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -10663,7 +10708,7 @@
         <v>871</v>
       </c>
       <c r="B871" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -10671,7 +10716,7 @@
         <v>872</v>
       </c>
       <c r="B872" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -10679,7 +10724,7 @@
         <v>873</v>
       </c>
       <c r="B873" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -10687,7 +10732,7 @@
         <v>874</v>
       </c>
       <c r="B874" t="s">
-        <v>1014</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -10695,7 +10740,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="s">
-        <v>1007</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -10703,7 +10748,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="s">
-        <v>1007</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10711,7 +10756,7 @@
         <v>877</v>
       </c>
       <c r="B877" t="s">
-        <v>1007</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -10719,7 +10764,7 @@
         <v>878</v>
       </c>
       <c r="B878" t="s">
-        <v>1007</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -10727,7 +10772,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10735,7 +10780,7 @@
         <v>880</v>
       </c>
       <c r="B880" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10743,7 +10788,7 @@
         <v>881</v>
       </c>
       <c r="B881" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10751,7 +10796,7 @@
         <v>882</v>
       </c>
       <c r="B882" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10759,7 +10804,7 @@
         <v>883</v>
       </c>
       <c r="B883" t="s">
-        <v>1085</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -10767,7 +10812,7 @@
         <v>884</v>
       </c>
       <c r="B884" t="s">
-        <v>1085</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10775,7 +10820,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="s">
-        <v>1085</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -10783,7 +10828,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="s">
-        <v>1085</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -10791,7 +10836,7 @@
         <v>887</v>
       </c>
       <c r="B887" t="s">
-        <v>1086</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -10799,7 +10844,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -10807,7 +10852,7 @@
         <v>889</v>
       </c>
       <c r="B889" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -10815,7 +10860,7 @@
         <v>890</v>
       </c>
       <c r="B890" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -10823,7 +10868,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -10831,7 +10876,7 @@
         <v>892</v>
       </c>
       <c r="B892" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -10839,7 +10884,7 @@
         <v>893</v>
       </c>
       <c r="B893" t="s">
-        <v>1008</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -10847,7 +10892,7 @@
         <v>894</v>
       </c>
       <c r="B894" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -10855,7 +10900,7 @@
         <v>895</v>
       </c>
       <c r="B895" t="s">
-        <v>1024</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -10863,7 +10908,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="s">
-        <v>986</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -10871,7 +10916,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="s">
-        <v>972</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -10879,7 +10924,7 @@
         <v>898</v>
       </c>
       <c r="B898" t="s">
-        <v>982</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -10887,7 +10932,7 @@
         <v>899</v>
       </c>
       <c r="B899" t="s">
-        <v>993</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -10895,7 +10940,7 @@
         <v>900</v>
       </c>
       <c r="B900" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -10903,7 +10948,7 @@
         <v>901</v>
       </c>
       <c r="B901" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -10911,7 +10956,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="s">
-        <v>1071</v>
+        <v>984</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -10919,7 +10964,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="s">
-        <v>1032</v>
+        <v>994</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -10927,7 +10972,7 @@
         <v>904</v>
       </c>
       <c r="B904" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -10935,7 +10980,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="s">
-        <v>991</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -10943,7 +10988,7 @@
         <v>906</v>
       </c>
       <c r="B906" t="s">
-        <v>1067</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -10951,7 +10996,7 @@
         <v>907</v>
       </c>
       <c r="B907" t="s">
-        <v>1017</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -10959,7 +11004,7 @@
         <v>908</v>
       </c>
       <c r="B908" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -10967,7 +11012,7 @@
         <v>909</v>
       </c>
       <c r="B909" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -10975,7 +11020,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="s">
-        <v>1090</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -10983,7 +11028,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -10991,7 +11036,7 @@
         <v>912</v>
       </c>
       <c r="B912" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -10999,7 +11044,7 @@
         <v>913</v>
       </c>
       <c r="B913" t="s">
-        <v>1092</v>
+        <v>977</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -11007,7 +11052,7 @@
         <v>914</v>
       </c>
       <c r="B914" t="s">
-        <v>1000</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -11015,7 +11060,7 @@
         <v>915</v>
       </c>
       <c r="B915" t="s">
-        <v>999</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -11023,7 +11068,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -11031,7 +11076,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -11039,7 +11084,7 @@
         <v>918</v>
       </c>
       <c r="B918" t="s">
-        <v>1038</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -11047,7 +11092,7 @@
         <v>919</v>
       </c>
       <c r="B919" t="s">
-        <v>1094</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -11055,7 +11100,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -11063,7 +11108,7 @@
         <v>921</v>
       </c>
       <c r="B921" t="s">
-        <v>1002</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -11071,7 +11116,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -11079,7 +11124,7 @@
         <v>923</v>
       </c>
       <c r="B923" t="s">
-        <v>1095</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -11087,7 +11132,7 @@
         <v>924</v>
       </c>
       <c r="B924" t="s">
-        <v>985</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -11095,7 +11140,7 @@
         <v>925</v>
       </c>
       <c r="B925" t="s">
-        <v>972</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -11103,7 +11148,7 @@
         <v>926</v>
       </c>
       <c r="B926" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -11111,7 +11156,7 @@
         <v>927</v>
       </c>
       <c r="B927" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -11119,7 +11164,7 @@
         <v>928</v>
       </c>
       <c r="B928" t="s">
-        <v>970</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -11127,7 +11172,7 @@
         <v>929</v>
       </c>
       <c r="B929" t="s">
-        <v>1040</v>
+        <v>997</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -11135,7 +11180,7 @@
         <v>930</v>
       </c>
       <c r="B930" t="s">
-        <v>1085</v>
+        <v>984</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -11143,7 +11188,7 @@
         <v>931</v>
       </c>
       <c r="B931" t="s">
-        <v>1096</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -11151,7 +11196,7 @@
         <v>932</v>
       </c>
       <c r="B932" t="s">
-        <v>996</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -11159,7 +11204,7 @@
         <v>933</v>
       </c>
       <c r="B933" t="s">
-        <v>1041</v>
+        <v>982</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -11167,7 +11212,7 @@
         <v>934</v>
       </c>
       <c r="B934" t="s">
-        <v>989</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -11175,7 +11220,7 @@
         <v>935</v>
       </c>
       <c r="B935" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -11183,7 +11228,7 @@
         <v>936</v>
       </c>
       <c r="B936" t="s">
-        <v>1045</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -11191,7 +11236,7 @@
         <v>937</v>
       </c>
       <c r="B937" t="s">
-        <v>977</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -11199,7 +11244,7 @@
         <v>938</v>
       </c>
       <c r="B938" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -11207,7 +11252,7 @@
         <v>939</v>
       </c>
       <c r="B939" t="s">
-        <v>1082</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -11215,7 +11260,7 @@
         <v>940</v>
       </c>
       <c r="B940" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -11223,7 +11268,7 @@
         <v>941</v>
       </c>
       <c r="B941" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -11239,7 +11284,7 @@
         <v>943</v>
       </c>
       <c r="B943" t="s">
-        <v>967</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -11247,7 +11292,7 @@
         <v>944</v>
       </c>
       <c r="B944" t="s">
-        <v>966</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -11255,7 +11300,7 @@
         <v>945</v>
       </c>
       <c r="B945" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -11263,7 +11308,7 @@
         <v>946</v>
       </c>
       <c r="B946" t="s">
-        <v>985</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -11271,7 +11316,7 @@
         <v>947</v>
       </c>
       <c r="B947" t="s">
-        <v>1100</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -11279,7 +11324,7 @@
         <v>948</v>
       </c>
       <c r="B948" t="s">
-        <v>1101</v>
+        <v>979</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -11287,7 +11332,7 @@
         <v>949</v>
       </c>
       <c r="B949" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -11295,7 +11340,7 @@
         <v>950</v>
       </c>
       <c r="B950" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -11303,7 +11348,7 @@
         <v>951</v>
       </c>
       <c r="B951" t="s">
-        <v>970</v>
+        <v>997</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -11311,7 +11356,7 @@
         <v>952</v>
       </c>
       <c r="B952" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -11319,7 +11364,7 @@
         <v>953</v>
       </c>
       <c r="B953" t="s">
-        <v>1027</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -11327,7 +11372,7 @@
         <v>954</v>
       </c>
       <c r="B954" t="s">
-        <v>1104</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -11335,7 +11380,7 @@
         <v>955</v>
       </c>
       <c r="B955" t="s">
-        <v>989</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -11343,7 +11388,7 @@
         <v>956</v>
       </c>
       <c r="B956" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -11351,7 +11396,7 @@
         <v>957</v>
       </c>
       <c r="B957" t="s">
-        <v>972</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -11359,7 +11404,7 @@
         <v>958</v>
       </c>
       <c r="B958" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -11367,7 +11412,103 @@
         <v>959</v>
       </c>
       <c r="B959" t="s">
-        <v>1054</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" t="s">
+        <v>960</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" t="s">
+        <v>961</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" t="s">
+        <v>962</v>
+      </c>
+      <c r="B962" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" t="s">
+        <v>963</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" t="s">
+        <v>964</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" t="s">
+        <v>965</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" t="s">
+        <v>966</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" t="s">
+        <v>967</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" t="s">
+        <v>968</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" t="s">
+        <v>969</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" t="s">
+        <v>970</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" t="s">
+        <v>971</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>

--- a/libs/sinonimos.xlsx
+++ b/libs/sinonimos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1156">
   <si>
     <t>Nome Original</t>
   </si>
@@ -1198,6 +1198,48 @@
     <t>OCEANA SELECTION 30 E FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO EM AÇÕES</t>
   </si>
   <si>
+    <t>H3 VERT FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>GARDE PORTHOS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>SOLANA EQUITY HEDGE II FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>KAPITALO ÔMEGA GLOBAL FUNDO DE INVESTIMENTO EM COTAS DE FI MULTIMERCADO INVESTIMENTO NO EXTERIOR</t>
+  </si>
+  <si>
+    <t>LEGACY CAPITAL CURTANA FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>CLAVE ALPHA MACRO W FICFI M</t>
+  </si>
+  <si>
+    <t>ADAM WE ADVANCED FI EM COTAS DE FI MULTIMERCADO CRÉDITO PRIVADO INVESTIMENTO NO EXTERIOR</t>
+  </si>
+  <si>
+    <t>CAPSTONE MACRO W FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>NÚCLEO WFO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO DE AÇÕES</t>
+  </si>
+  <si>
+    <t>GROU ORIZURU FUNDO DE INVESTIMENTO DE AÇÕES</t>
+  </si>
+  <si>
+    <t>NEO PROVECTUS I FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>JOYEUSE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO CRÉDITO PRIVADO IE</t>
+  </si>
+  <si>
+    <t>JGP STRATEGY FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO - FEEDER XIV</t>
+  </si>
+  <si>
+    <t>SQUADRA LB WM FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO DE AÇÕES</t>
+  </si>
+  <si>
     <t>3 ILHAS MASTER FUNDO DE INVESTIMENTO EM AÇÕES</t>
   </si>
   <si>
@@ -1757,6 +1799,21 @@
   </si>
   <si>
     <t>RYAN JULIUS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>VERDE FIC MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>GARDE PORTHOS MASTER FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>ADAM ADVANCED MASTER FUNDO DE INVESTIMENTO MULT CRED PRIV - IE</t>
+  </si>
+  <si>
+    <t>ACE CAPITAL ABSOLUTO  MASTER FUNDO DE INVESTIMENTO DE AÇÕES</t>
+  </si>
+  <si>
+    <t>NEO PROVECTUS I FUNDO DE INVESTIMENTO MULTIMERCADO</t>
   </si>
   <si>
     <t>51.152.458/0001-05</t>
@@ -2933,6 +2990,51 @@
     <t>13.958.690/0001-38</t>
   </si>
   <si>
+    <t>24.404.844/0001-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.491.437/0001-50_x000D_
+</t>
+  </si>
+  <si>
+    <t>28.321.220/0001-36</t>
+  </si>
+  <si>
+    <t>30.507.317/0001-80</t>
+  </si>
+  <si>
+    <t>30.568.933/0001-40</t>
+  </si>
+  <si>
+    <t>41.799.611/0001-29</t>
+  </si>
+  <si>
+    <t>42.870.932/0001-35</t>
+  </si>
+  <si>
+    <t>46.442.140/0001-10</t>
+  </si>
+  <si>
+    <t>28.386.148/0001-25</t>
+  </si>
+  <si>
+    <t>35.645.074/0001-60</t>
+  </si>
+  <si>
+    <t>26.324.209/0001-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.569.966/0001-78_x000D_
+</t>
+  </si>
+  <si>
+    <t>41.888.325/0001-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.939.983/0001-00_x000D_
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 Ilhas </t>
   </si>
   <si>
@@ -3377,6 +3479,12 @@
   </si>
   <si>
     <t>CL4 Capital</t>
+  </si>
+  <si>
+    <t>Kapitalo Ômega</t>
+  </si>
+  <si>
+    <t>Neo Provectus</t>
   </si>
   <si>
     <t>Neo Future</t>
@@ -3737,7 +3845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B971"/>
+  <dimension ref="A1:B1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3756,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>972</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3764,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3772,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>974</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3780,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3788,7 +3896,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3796,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3804,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3812,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3820,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3828,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3836,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3844,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3852,7 +3960,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3860,7 +3968,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3868,7 +3976,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3876,7 +3984,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3884,7 +3992,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3892,7 +4000,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3900,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>983</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3908,7 +4016,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3916,7 +4024,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3924,7 +4032,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3932,7 +4040,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3940,7 +4048,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3948,7 +4056,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3956,7 +4064,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3964,7 +4072,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3972,7 +4080,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3980,7 +4088,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3988,7 +4096,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3996,7 +4104,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4004,7 +4112,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4012,7 +4120,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4020,7 +4128,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4028,7 +4136,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4036,7 +4144,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4044,7 +4152,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4052,7 +4160,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4060,7 +4168,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4068,7 +4176,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4076,7 +4184,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4084,7 +4192,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4092,7 +4200,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4100,7 +4208,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4108,7 +4216,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4116,7 +4224,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4124,7 +4232,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4132,7 +4240,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4140,7 +4248,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4148,7 +4256,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4156,7 +4264,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4164,7 +4272,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4172,7 +4280,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4180,7 +4288,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>991</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4188,7 +4296,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4196,7 +4304,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4204,7 +4312,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4212,7 +4320,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4220,7 +4328,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4228,7 +4336,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4236,7 +4344,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4244,7 +4352,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4252,7 +4360,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4260,7 +4368,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>995</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4268,7 +4376,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>996</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4276,7 +4384,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>996</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4284,7 +4392,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4292,7 +4400,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4300,7 +4408,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4308,7 +4416,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4316,7 +4424,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4324,7 +4432,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4332,7 +4440,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4340,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4348,7 +4456,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4356,7 +4464,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4364,7 +4472,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4372,7 +4480,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4380,7 +4488,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4388,7 +4496,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4396,7 +4504,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4404,7 +4512,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4412,7 +4520,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4420,7 +4528,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4428,7 +4536,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4436,7 +4544,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4444,7 +4552,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4452,7 +4560,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4460,7 +4568,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4468,7 +4576,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4476,7 +4584,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4484,7 +4592,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4492,7 +4600,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4500,7 +4608,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>1004</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4508,7 +4616,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4516,7 +4624,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>1006</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4524,7 +4632,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4532,7 +4640,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4540,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4548,7 +4656,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4556,7 +4664,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4564,7 +4672,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4572,7 +4680,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4580,7 +4688,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4588,7 +4696,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4596,7 +4704,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4604,7 +4712,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4612,7 +4720,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4620,7 +4728,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4628,7 +4736,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4636,7 +4744,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>1016</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4644,7 +4752,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4652,7 +4760,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4660,7 +4768,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>1018</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4668,7 +4776,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4676,7 +4784,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4684,7 +4792,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4692,7 +4800,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>1021</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4700,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>1022</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4708,7 +4816,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>1023</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4716,7 +4824,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>1024</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4724,7 +4832,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4732,7 +4840,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4740,7 +4848,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4748,7 +4856,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4756,7 +4864,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>1026</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4764,7 +4872,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>1027</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4772,7 +4880,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>1027</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4780,7 +4888,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4788,7 +4896,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4796,7 +4904,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4804,7 +4912,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4812,7 +4920,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4820,7 +4928,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4828,7 +4936,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4836,7 +4944,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4844,7 +4952,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>1031</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4852,7 +4960,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>1031</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4860,7 +4968,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>1032</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4868,7 +4976,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>1033</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4876,7 +4984,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>1034</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4884,7 +4992,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>1035</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4892,7 +5000,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4900,7 +5008,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4908,7 +5016,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4916,7 +5024,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4924,7 +5032,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4932,7 +5040,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4940,7 +5048,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4948,7 +5056,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4956,7 +5064,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4964,7 +5072,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4972,7 +5080,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4980,7 +5088,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4988,7 +5096,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>1040</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4996,7 +5104,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>1041</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5004,7 +5112,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>1042</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5012,7 +5120,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5020,7 +5128,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5028,7 +5136,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5036,7 +5144,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5044,7 +5152,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5052,7 +5160,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5060,7 +5168,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5068,7 +5176,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5076,7 +5184,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5084,7 +5192,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5092,7 +5200,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>1045</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5100,7 +5208,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5108,7 +5216,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5116,7 +5224,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5124,7 +5232,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5132,7 +5240,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5140,7 +5248,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>1047</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5148,7 +5256,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>1048</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5156,7 +5264,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5164,7 +5272,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5172,7 +5280,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5180,7 +5288,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5188,7 +5296,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>1051</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5196,7 +5304,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5204,7 +5312,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5212,7 +5320,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5220,7 +5328,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5228,7 +5336,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5236,7 +5344,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>1053</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5244,7 +5352,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5252,7 +5360,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5260,7 +5368,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5268,7 +5376,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>1054</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5276,7 +5384,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5284,7 +5392,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>1055</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5292,7 +5400,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5300,7 +5408,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5308,7 +5416,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5316,7 +5424,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5324,7 +5432,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5332,7 +5440,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5340,7 +5448,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5348,7 +5456,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5356,7 +5464,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5364,7 +5472,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5372,7 +5480,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5380,7 +5488,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5388,7 +5496,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>1057</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5396,7 +5504,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5404,7 +5512,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5412,7 +5520,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>1059</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5420,7 +5528,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>1060</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5428,7 +5536,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>1061</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5436,7 +5544,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>1061</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5444,7 +5552,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>1062</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5452,7 +5560,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>1062</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5460,7 +5568,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5468,7 +5576,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5476,7 +5584,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>1064</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5484,7 +5592,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5492,7 +5600,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5500,7 +5608,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5508,7 +5616,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5516,7 +5624,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5524,7 +5632,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>1068</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5532,7 +5640,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5540,7 +5648,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5548,7 +5656,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>1070</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5556,7 +5664,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5564,7 +5672,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5572,7 +5680,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5580,7 +5688,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5588,7 +5696,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>1072</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5596,7 +5704,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5604,7 +5712,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5612,7 +5720,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>1073</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5620,7 +5728,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>1074</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5628,7 +5736,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>1075</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5636,7 +5744,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5644,7 +5752,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5652,7 +5760,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5660,7 +5768,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5668,7 +5776,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5676,7 +5784,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5684,7 +5792,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5692,7 +5800,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>1077</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5700,7 +5808,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5708,7 +5816,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5716,7 +5824,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5724,7 +5832,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5732,7 +5840,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5740,7 +5848,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5748,7 +5856,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>1079</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5756,7 +5864,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5764,7 +5872,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5772,7 +5880,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5780,7 +5888,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5788,7 +5896,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5796,7 +5904,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1081</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5804,7 +5912,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1081</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5812,7 +5920,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5820,7 +5928,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5828,7 +5936,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5836,7 +5944,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5844,7 +5952,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5852,7 +5960,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5860,7 +5968,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5868,7 +5976,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5876,7 +5984,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5884,7 +5992,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5892,7 +6000,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5900,7 +6008,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5908,7 +6016,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5916,7 +6024,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>1084</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5924,7 +6032,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5932,7 +6040,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5940,7 +6048,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5948,7 +6056,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>1085</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5956,7 +6064,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>1086</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5964,7 +6072,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>1086</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5972,7 +6080,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>1086</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5980,7 +6088,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>1087</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5988,7 +6096,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1087</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5996,7 +6104,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1088</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6004,7 +6112,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1089</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6012,7 +6120,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1090</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6020,7 +6128,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6028,7 +6136,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1091</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6036,7 +6144,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1091</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6044,7 +6152,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1091</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6052,7 +6160,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6060,7 +6168,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1092</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6068,7 +6176,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1092</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6076,7 +6184,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6084,7 +6192,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6092,7 +6200,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6100,7 +6208,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6108,7 +6216,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6116,7 +6224,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1094</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6124,7 +6232,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1095</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6132,7 +6240,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1095</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6140,7 +6248,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>1026</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6148,7 +6256,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6156,7 +6264,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6164,7 +6272,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6172,7 +6280,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6180,7 +6288,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6188,7 +6296,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6196,7 +6304,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6204,7 +6312,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6212,7 +6320,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6220,7 +6328,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6228,7 +6336,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -6236,7 +6344,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6244,7 +6352,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>1097</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6252,7 +6360,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>1098</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6260,7 +6368,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>1098</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6268,7 +6376,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6276,7 +6384,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6284,7 +6392,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -6292,7 +6400,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -6300,7 +6408,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>1100</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6308,7 +6416,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>1035</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -6316,7 +6424,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6324,7 +6432,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -6332,7 +6440,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -6340,7 +6448,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -6348,7 +6456,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>1041</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -6356,7 +6464,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -6364,7 +6472,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6372,7 +6480,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6380,7 +6488,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6388,7 +6496,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6396,7 +6504,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6404,7 +6512,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6412,7 +6520,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6420,7 +6528,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6428,7 +6536,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>1101</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6436,7 +6544,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>1102</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6444,7 +6552,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6452,7 +6560,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>1103</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6460,7 +6568,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6468,7 +6576,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6476,7 +6584,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>1104</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6484,7 +6592,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6492,7 +6600,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6500,7 +6608,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>1105</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6508,7 +6616,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>1026</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6516,7 +6624,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6524,7 +6632,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>1026</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6532,7 +6640,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>1106</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6540,7 +6648,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6548,7 +6656,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6556,7 +6664,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>1042</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6564,7 +6672,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6572,7 +6680,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6580,7 +6688,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>1051</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6588,7 +6696,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6596,7 +6704,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1107</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6604,7 +6712,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6612,7 +6720,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6620,7 +6728,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6628,7 +6736,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>1108</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6636,7 +6744,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6644,7 +6752,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6652,7 +6760,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6660,7 +6768,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6668,7 +6776,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>1109</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6676,7 +6784,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6684,7 +6792,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6692,7 +6800,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6700,7 +6808,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6708,7 +6816,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1110</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6716,7 +6824,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6724,7 +6832,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1111</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6732,7 +6840,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1112</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6740,7 +6848,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6748,7 +6856,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1113</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6756,7 +6864,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6764,7 +6872,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1114</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6772,7 +6880,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6780,7 +6888,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1115</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6788,7 +6896,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6796,7 +6904,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6804,7 +6912,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6812,7 +6920,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6820,7 +6928,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6828,7 +6936,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1116</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6836,7 +6944,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1117</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6844,7 +6952,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6852,7 +6960,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6860,7 +6968,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6868,7 +6976,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>1118</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6876,7 +6984,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1119</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6884,7 +6992,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6892,7 +7000,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>972</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6900,7 +7008,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>973</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6908,7 +7016,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>974</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6916,7 +7024,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>975</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6924,7 +7032,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>976</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6932,7 +7040,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>977</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6940,7 +7048,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>978</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6948,7 +7056,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>978</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6956,7 +7064,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>979</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6964,7 +7072,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6972,7 +7080,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>980</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6980,7 +7088,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>981</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6988,7 +7096,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>982</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6996,7 +7104,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>983</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -7004,7 +7112,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7012,7 +7120,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7020,7 +7128,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -7028,7 +7136,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>986</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7036,7 +7144,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>986</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -7044,7 +7152,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>986</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7052,7 +7160,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7060,7 +7168,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7068,7 +7176,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7076,7 +7184,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7084,7 +7192,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>978</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7092,7 +7200,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>988</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7100,7 +7208,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>989</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7108,7 +7216,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>989</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7116,7 +7224,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7124,7 +7232,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>990</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7132,7 +7240,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>991</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7140,7 +7248,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7148,7 +7256,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7156,7 +7264,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7164,7 +7272,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7172,7 +7280,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -7180,7 +7288,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7188,7 +7296,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>995</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -7196,7 +7304,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -7204,7 +7312,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>996</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -7212,7 +7320,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -7220,7 +7328,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>984</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7228,7 +7336,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -7236,7 +7344,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7244,7 +7352,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -7252,7 +7360,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7260,7 +7368,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -7268,7 +7376,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7276,7 +7384,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -7284,7 +7392,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -7292,7 +7400,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -7300,7 +7408,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7308,7 +7416,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -7316,7 +7424,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -7324,7 +7432,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -7332,7 +7440,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -7340,7 +7448,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -7348,7 +7456,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -7356,7 +7464,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1038</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -7364,7 +7472,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1039</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -7372,7 +7480,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -7380,7 +7488,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -7388,7 +7496,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -7396,7 +7504,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1042</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -7404,7 +7512,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1007</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -7412,7 +7520,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1007</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -7420,7 +7528,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1043</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -7428,7 +7536,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1043</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -7436,7 +7544,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -7444,7 +7552,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1045</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7452,7 +7560,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -7460,7 +7568,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1001</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -7468,7 +7576,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1001</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -7476,7 +7584,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -7484,7 +7592,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1047</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -7492,7 +7600,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1048</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -7500,7 +7608,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1049</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -7508,7 +7616,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -7516,7 +7624,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -7524,7 +7632,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7532,7 +7640,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7540,7 +7648,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -7548,7 +7656,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1052</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -7556,7 +7664,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7564,7 +7672,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>986</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7572,7 +7680,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7580,7 +7688,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7588,7 +7696,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -7596,7 +7704,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1012</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -7604,7 +7712,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1012</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7612,7 +7720,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>1057</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -7620,7 +7728,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1058</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7628,7 +7736,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1059</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7636,7 +7744,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1060</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -7644,7 +7752,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1061</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7652,7 +7760,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1061</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -7660,7 +7768,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1062</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7668,7 +7776,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1063</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7676,7 +7784,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1064</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7684,7 +7792,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1065</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7692,7 +7800,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1066</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7700,7 +7808,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7708,7 +7816,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7716,7 +7824,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7724,7 +7832,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>1069</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7732,7 +7840,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>1014</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7740,7 +7848,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>1070</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7748,7 +7856,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7756,7 +7864,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>1015</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7764,7 +7872,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>1072</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7772,7 +7880,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>998</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7780,7 +7888,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>1019</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7788,7 +7896,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7796,7 +7904,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>1074</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7804,7 +7912,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>1075</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7812,7 +7920,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>1076</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7820,7 +7928,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>1076</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7828,7 +7936,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>1017</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7836,7 +7944,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>1017</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7844,7 +7952,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7852,7 +7960,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>1078</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7860,7 +7968,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7868,7 +7976,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>1079</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7876,7 +7984,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>1025</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7884,7 +7992,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>1080</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7892,7 +8000,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>1029</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7900,7 +8008,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>1029</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7908,7 +8016,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>1081</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7916,7 +8024,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>1081</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7924,7 +8032,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>1065</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7932,7 +8040,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>1082</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7940,7 +8048,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>1082</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7948,7 +8056,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>1082</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7956,7 +8064,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>1083</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7964,7 +8072,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>1084</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7972,7 +8080,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7980,7 +8088,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>1085</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7988,7 +8096,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7996,7 +8104,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>1087</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -8004,7 +8112,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>1088</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -8012,7 +8120,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>1089</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -8020,7 +8128,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>1090</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -8028,7 +8136,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>1082</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -8036,7 +8144,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -8044,7 +8152,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>1091</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -8052,7 +8160,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>1091</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -8060,7 +8168,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>1001</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -8068,7 +8176,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>1092</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -8076,7 +8184,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>1092</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -8084,7 +8192,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -8092,7 +8200,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>1093</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -8100,7 +8208,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -8108,7 +8216,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>1094</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -8116,7 +8224,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>1095</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -8124,7 +8232,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>1026</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -8132,7 +8240,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>1019</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -8140,7 +8248,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>1019</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -8148,7 +8256,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -8156,7 +8264,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -8164,7 +8272,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -8172,7 +8280,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>1096</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -8180,7 +8288,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>1097</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -8188,7 +8296,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>1098</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -8196,7 +8304,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>1099</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -8204,7 +8312,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>1020</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -8212,7 +8320,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>1100</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -8220,7 +8328,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>1009</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -8228,7 +8336,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>1011</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -8236,7 +8344,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>1105</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -8244,7 +8352,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>1026</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -8252,7 +8360,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>1106</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -8260,7 +8368,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>997</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -8268,7 +8376,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -8276,7 +8384,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>1109</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -8284,7 +8392,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>1082</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -8292,7 +8400,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>979</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -8300,7 +8408,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>978</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -8308,7 +8416,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>1110</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -8316,7 +8424,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>1111</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -8324,7 +8432,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>1112</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -8332,7 +8440,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>1008</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -8340,7 +8448,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>1113</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -8348,7 +8456,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>1114</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -8356,7 +8464,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>1115</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -8364,7 +8472,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>1001</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -8372,7 +8480,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>1001</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -8380,7 +8488,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>1065</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -8388,7 +8496,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>972</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -8396,7 +8504,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>973</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -8404,7 +8512,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>974</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -8412,7 +8520,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>975</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8420,7 +8528,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>976</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -8428,7 +8536,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>977</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -8436,7 +8544,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>977</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -8444,7 +8552,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>977</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -8452,7 +8560,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>978</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -8460,7 +8568,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>978</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -8468,7 +8576,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>978</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -8476,7 +8584,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>978</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8484,7 +8592,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>979</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -8492,7 +8600,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>979</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -8500,7 +8608,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>980</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8508,7 +8616,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>981</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -8516,7 +8624,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>981</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -8524,7 +8632,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -8532,7 +8640,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>983</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8540,7 +8648,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8548,7 +8656,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -8556,7 +8664,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8564,7 +8672,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8572,7 +8680,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -8580,7 +8688,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8588,7 +8696,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8596,7 +8704,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8604,7 +8712,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>984</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8612,7 +8720,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>984</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -8620,7 +8728,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>984</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8628,7 +8736,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>984</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8636,7 +8744,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -8644,7 +8752,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>985</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -8652,7 +8760,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>986</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -8660,7 +8768,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8668,7 +8776,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8676,7 +8784,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>986</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8684,7 +8792,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>986</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8692,7 +8800,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>986</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -8700,7 +8808,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>986</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8708,7 +8816,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>987</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8716,7 +8824,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>987</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8724,7 +8832,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>987</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8732,7 +8840,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>987</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8740,7 +8848,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>978</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -8748,7 +8856,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>988</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -8756,7 +8864,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8764,7 +8872,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -8772,7 +8880,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -8780,7 +8888,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8788,7 +8896,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -8796,7 +8904,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>989</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8804,7 +8912,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>990</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8812,7 +8920,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8820,7 +8928,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8828,7 +8936,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8836,7 +8944,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8844,7 +8952,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8852,7 +8960,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8860,7 +8968,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8868,7 +8976,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8876,7 +8984,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>993</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8884,7 +8992,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8892,7 +9000,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8900,7 +9008,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>996</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8908,7 +9016,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>996</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8916,7 +9024,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8924,7 +9032,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8932,7 +9040,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>998</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8940,7 +9048,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8948,7 +9056,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8956,7 +9064,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>985</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8964,7 +9072,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>1001</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8972,7 +9080,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8980,7 +9088,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8988,7 +9096,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8996,7 +9104,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -9004,7 +9112,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -9012,7 +9120,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -9020,7 +9128,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -9028,7 +9136,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -9036,7 +9144,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -9044,7 +9152,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>1001</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -9052,7 +9160,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -9060,7 +9168,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -9068,7 +9176,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>1001</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -9076,7 +9184,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>1001</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -9084,7 +9192,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>1001</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -9092,7 +9200,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>1001</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -9100,7 +9208,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -9108,7 +9216,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -9116,7 +9224,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>1003</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -9124,7 +9232,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>1003</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -9132,7 +9240,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>1004</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -9140,7 +9248,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>1005</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -9148,7 +9256,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -9156,7 +9264,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>1007</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -9164,7 +9272,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -9172,7 +9280,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -9180,7 +9288,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -9188,7 +9296,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>1008</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -9196,7 +9304,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -9204,7 +9312,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -9212,7 +9320,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -9220,7 +9328,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>1011</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -9228,7 +9336,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>1011</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -9236,7 +9344,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -9244,7 +9352,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>1013</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -9252,7 +9360,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -9260,7 +9368,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -9268,7 +9376,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -9276,7 +9384,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -9284,7 +9392,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -9292,7 +9400,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -9300,7 +9408,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -9308,7 +9416,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>1019</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -9316,7 +9424,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>1020</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -9324,7 +9432,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -9332,7 +9440,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -9340,7 +9448,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -9348,7 +9456,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -9356,7 +9464,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>1007</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -9364,7 +9472,7 @@
         <v>703</v>
       </c>
       <c r="B703" t="s">
-        <v>1012</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -9372,7 +9480,7 @@
         <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -9380,7 +9488,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>978</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -9388,7 +9496,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -9396,7 +9504,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -9404,7 +9512,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -9412,7 +9520,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>1003</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -9420,7 +9528,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>1003</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -9428,7 +9536,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>1003</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -9436,7 +9544,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>1003</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -9444,7 +9552,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>1028</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -9452,7 +9560,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -9460,7 +9568,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>1029</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -9468,7 +9576,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>1030</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -9476,7 +9584,7 @@
         <v>717</v>
       </c>
       <c r="B717" t="s">
-        <v>1031</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -9484,7 +9592,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -9492,7 +9600,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -9500,7 +9608,7 @@
         <v>720</v>
       </c>
       <c r="B720" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -9508,7 +9616,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -9516,7 +9624,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -9524,7 +9632,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -9532,7 +9640,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -9540,7 +9648,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -9548,7 +9656,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="s">
-        <v>1037</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -9556,7 +9664,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="s">
-        <v>1037</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -9564,7 +9672,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -9572,7 +9680,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -9580,7 +9688,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -9588,7 +9696,7 @@
         <v>731</v>
       </c>
       <c r="B731" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -9596,7 +9704,7 @@
         <v>732</v>
       </c>
       <c r="B732" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -9604,7 +9712,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -9612,7 +9720,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="s">
-        <v>1039</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -9620,7 +9728,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -9628,7 +9736,7 @@
         <v>736</v>
       </c>
       <c r="B736" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -9636,7 +9744,7 @@
         <v>737</v>
       </c>
       <c r="B737" t="s">
-        <v>1042</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -9644,7 +9752,7 @@
         <v>738</v>
       </c>
       <c r="B738" t="s">
-        <v>1007</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -9652,7 +9760,7 @@
         <v>739</v>
       </c>
       <c r="B739" t="s">
-        <v>1007</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -9660,7 +9768,7 @@
         <v>740</v>
       </c>
       <c r="B740" t="s">
-        <v>1007</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -9668,7 +9776,7 @@
         <v>741</v>
       </c>
       <c r="B741" t="s">
-        <v>1007</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -9676,7 +9784,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="s">
-        <v>1007</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -9684,7 +9792,7 @@
         <v>743</v>
       </c>
       <c r="B743" t="s">
-        <v>1043</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -9692,7 +9800,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="s">
-        <v>1043</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -9700,7 +9808,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9708,7 +9816,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -9716,7 +9824,7 @@
         <v>747</v>
       </c>
       <c r="B747" t="s">
-        <v>1044</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9724,7 +9832,7 @@
         <v>748</v>
       </c>
       <c r="B748" t="s">
-        <v>1045</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9732,7 +9840,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="s">
-        <v>1046</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -9740,7 +9848,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -9748,7 +9856,7 @@
         <v>751</v>
       </c>
       <c r="B751" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9756,7 +9864,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9764,7 +9872,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9772,7 +9880,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="s">
-        <v>1047</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9780,7 +9888,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="s">
-        <v>1048</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -9788,7 +9896,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="s">
-        <v>1049</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -9796,7 +9904,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -9804,7 +9912,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -9812,7 +9920,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9820,7 +9928,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9828,7 +9936,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -9836,7 +9944,7 @@
         <v>762</v>
       </c>
       <c r="B762" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9844,7 +9952,7 @@
         <v>763</v>
       </c>
       <c r="B763" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -9852,7 +9960,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="s">
-        <v>1052</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9860,7 +9968,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="s">
-        <v>1052</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9868,7 +9976,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="s">
-        <v>1053</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9876,7 +9984,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="s">
-        <v>1052</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9884,7 +9992,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="s">
-        <v>1052</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9892,7 +10000,7 @@
         <v>769</v>
       </c>
       <c r="B769" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9900,7 +10008,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9908,7 +10016,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="s">
-        <v>986</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9916,7 +10024,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9924,7 +10032,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="s">
-        <v>1056</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9932,7 +10040,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="s">
-        <v>1056</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9940,7 +10048,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="s">
-        <v>1056</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9948,7 +10056,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="s">
-        <v>1056</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9956,7 +10064,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="s">
-        <v>1012</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9964,7 +10072,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="s">
-        <v>1012</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9972,7 +10080,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="s">
-        <v>1012</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9980,7 +10088,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="s">
-        <v>1012</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9988,7 +10096,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="s">
-        <v>1012</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9996,7 +10104,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="s">
-        <v>1012</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -10004,7 +10112,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="s">
-        <v>1012</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -10012,7 +10120,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="s">
-        <v>1012</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -10020,7 +10128,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="s">
-        <v>1057</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -10028,7 +10136,7 @@
         <v>786</v>
       </c>
       <c r="B786" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -10036,7 +10144,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -10044,7 +10152,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="s">
-        <v>1059</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -10052,7 +10160,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="s">
-        <v>1060</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -10060,7 +10168,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="s">
-        <v>1061</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -10068,7 +10176,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -10076,7 +10184,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="s">
-        <v>1062</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -10084,7 +10192,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="s">
-        <v>1062</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -10092,7 +10200,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="s">
-        <v>1063</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -10100,7 +10208,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="s">
-        <v>1063</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -10108,7 +10216,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -10116,7 +10224,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -10124,7 +10232,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -10132,7 +10240,7 @@
         <v>799</v>
       </c>
       <c r="B799" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -10140,7 +10248,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="s">
-        <v>1120</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -10148,7 +10256,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -10156,7 +10264,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -10164,7 +10272,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -10172,7 +10280,7 @@
         <v>804</v>
       </c>
       <c r="B804" t="s">
-        <v>1014</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -10180,7 +10288,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -10188,7 +10296,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -10196,7 +10304,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -10204,7 +10312,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -10212,7 +10320,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="s">
-        <v>1015</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -10220,7 +10328,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="s">
-        <v>1072</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -10228,7 +10336,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="s">
-        <v>998</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -10236,7 +10344,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="s">
-        <v>1019</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -10244,7 +10352,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="s">
-        <v>1073</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -10252,7 +10360,7 @@
         <v>814</v>
       </c>
       <c r="B814" t="s">
-        <v>1074</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -10260,7 +10368,7 @@
         <v>815</v>
       </c>
       <c r="B815" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -10268,7 +10376,7 @@
         <v>816</v>
       </c>
       <c r="B816" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -10276,7 +10384,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -10284,7 +10392,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="s">
-        <v>1076</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -10292,7 +10400,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="s">
-        <v>1076</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -10300,7 +10408,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="s">
-        <v>1076</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -10308,7 +10416,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="s">
-        <v>1017</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -10316,7 +10424,7 @@
         <v>822</v>
       </c>
       <c r="B822" t="s">
-        <v>1017</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -10324,7 +10432,7 @@
         <v>823</v>
       </c>
       <c r="B823" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -10332,7 +10440,7 @@
         <v>824</v>
       </c>
       <c r="B824" t="s">
-        <v>1078</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -10340,7 +10448,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -10348,7 +10456,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -10356,7 +10464,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -10364,7 +10472,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="s">
-        <v>1078</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -10372,7 +10480,7 @@
         <v>829</v>
       </c>
       <c r="B829" t="s">
-        <v>1078</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -10380,7 +10488,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="s">
-        <v>1079</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -10388,7 +10496,7 @@
         <v>831</v>
       </c>
       <c r="B831" t="s">
-        <v>1025</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -10396,7 +10504,7 @@
         <v>832</v>
       </c>
       <c r="B832" t="s">
-        <v>1025</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -10404,7 +10512,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="s">
-        <v>1080</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -10412,7 +10520,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="s">
-        <v>1029</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -10420,7 +10528,7 @@
         <v>835</v>
       </c>
       <c r="B835" t="s">
-        <v>1029</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -10428,7 +10536,7 @@
         <v>836</v>
       </c>
       <c r="B836" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -10436,7 +10544,7 @@
         <v>837</v>
       </c>
       <c r="B837" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -10444,7 +10552,7 @@
         <v>838</v>
       </c>
       <c r="B838" t="s">
-        <v>1065</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -10452,7 +10560,7 @@
         <v>839</v>
       </c>
       <c r="B839" t="s">
-        <v>1065</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -10460,7 +10568,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -10468,7 +10576,7 @@
         <v>841</v>
       </c>
       <c r="B841" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -10476,7 +10584,7 @@
         <v>842</v>
       </c>
       <c r="B842" t="s">
-        <v>1065</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -10484,7 +10592,7 @@
         <v>843</v>
       </c>
       <c r="B843" t="s">
-        <v>1065</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -10492,7 +10600,7 @@
         <v>844</v>
       </c>
       <c r="B844" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -10500,7 +10608,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -10508,7 +10616,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -10516,7 +10624,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -10524,7 +10632,7 @@
         <v>848</v>
       </c>
       <c r="B848" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -10532,7 +10640,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="s">
-        <v>1082</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -10540,7 +10648,7 @@
         <v>850</v>
       </c>
       <c r="B850" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -10548,7 +10656,7 @@
         <v>851</v>
       </c>
       <c r="B851" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -10556,7 +10664,7 @@
         <v>852</v>
       </c>
       <c r="B852" t="s">
-        <v>1083</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -10564,7 +10672,7 @@
         <v>853</v>
       </c>
       <c r="B853" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -10572,7 +10680,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -10580,7 +10688,7 @@
         <v>855</v>
       </c>
       <c r="B855" t="s">
-        <v>1085</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -10588,7 +10696,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="s">
-        <v>1086</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -10596,7 +10704,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -10604,7 +10712,7 @@
         <v>858</v>
       </c>
       <c r="B858" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -10612,7 +10720,7 @@
         <v>859</v>
       </c>
       <c r="B859" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -10620,7 +10728,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -10628,7 +10736,7 @@
         <v>861</v>
       </c>
       <c r="B861" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -10636,7 +10744,7 @@
         <v>862</v>
       </c>
       <c r="B862" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -10644,7 +10752,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="s">
-        <v>1090</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -10652,7 +10760,7 @@
         <v>864</v>
       </c>
       <c r="B864" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -10660,7 +10768,7 @@
         <v>865</v>
       </c>
       <c r="B865" t="s">
-        <v>1091</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -10668,7 +10776,7 @@
         <v>866</v>
       </c>
       <c r="B866" t="s">
-        <v>1091</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -10676,7 +10784,7 @@
         <v>867</v>
       </c>
       <c r="B867" t="s">
-        <v>1091</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -10684,7 +10792,7 @@
         <v>868</v>
       </c>
       <c r="B868" t="s">
-        <v>1001</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -10692,7 +10800,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="s">
-        <v>1092</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -10700,7 +10808,7 @@
         <v>870</v>
       </c>
       <c r="B870" t="s">
-        <v>1092</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -10708,7 +10816,7 @@
         <v>871</v>
       </c>
       <c r="B871" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -10716,7 +10824,7 @@
         <v>872</v>
       </c>
       <c r="B872" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -10724,7 +10832,7 @@
         <v>873</v>
       </c>
       <c r="B873" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -10732,7 +10840,7 @@
         <v>874</v>
       </c>
       <c r="B874" t="s">
-        <v>1093</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -10740,7 +10848,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -10748,7 +10856,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="s">
-        <v>1094</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10756,7 +10864,7 @@
         <v>877</v>
       </c>
       <c r="B877" t="s">
-        <v>1095</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -10764,7 +10872,7 @@
         <v>878</v>
       </c>
       <c r="B878" t="s">
-        <v>1095</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -10772,7 +10880,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="s">
-        <v>1026</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10780,7 +10888,7 @@
         <v>880</v>
       </c>
       <c r="B880" t="s">
-        <v>1019</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10788,7 +10896,7 @@
         <v>881</v>
       </c>
       <c r="B881" t="s">
-        <v>1019</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10796,7 +10904,7 @@
         <v>882</v>
       </c>
       <c r="B882" t="s">
-        <v>1019</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10804,7 +10912,7 @@
         <v>883</v>
       </c>
       <c r="B883" t="s">
-        <v>1019</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -10812,7 +10920,7 @@
         <v>884</v>
       </c>
       <c r="B884" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10820,7 +10928,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -10828,7 +10936,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -10836,7 +10944,7 @@
         <v>887</v>
       </c>
       <c r="B887" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -10844,7 +10952,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -10852,7 +10960,7 @@
         <v>889</v>
       </c>
       <c r="B889" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -10860,7 +10968,7 @@
         <v>890</v>
       </c>
       <c r="B890" t="s">
-        <v>1096</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -10868,7 +10976,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="s">
-        <v>1096</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -10876,7 +10984,7 @@
         <v>892</v>
       </c>
       <c r="B892" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -10884,7 +10992,7 @@
         <v>893</v>
       </c>
       <c r="B893" t="s">
-        <v>1098</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -10892,7 +11000,7 @@
         <v>894</v>
       </c>
       <c r="B894" t="s">
-        <v>1098</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -10900,7 +11008,7 @@
         <v>895</v>
       </c>
       <c r="B895" t="s">
-        <v>1099</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -10908,7 +11016,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -10916,7 +11024,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -10924,7 +11032,7 @@
         <v>898</v>
       </c>
       <c r="B898" t="s">
-        <v>1020</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -10932,7 +11040,7 @@
         <v>899</v>
       </c>
       <c r="B899" t="s">
-        <v>1100</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -10940,7 +11048,7 @@
         <v>900</v>
       </c>
       <c r="B900" t="s">
-        <v>1035</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -10948,7 +11056,7 @@
         <v>901</v>
       </c>
       <c r="B901" t="s">
-        <v>998</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -10956,7 +11064,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="s">
-        <v>984</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -10964,7 +11072,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="s">
-        <v>994</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -10972,7 +11080,7 @@
         <v>904</v>
       </c>
       <c r="B904" t="s">
-        <v>1005</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -10980,7 +11088,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -10988,7 +11096,7 @@
         <v>906</v>
       </c>
       <c r="B906" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -10996,7 +11104,7 @@
         <v>907</v>
       </c>
       <c r="B907" t="s">
-        <v>1082</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -11004,7 +11112,7 @@
         <v>908</v>
       </c>
       <c r="B908" t="s">
-        <v>1043</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -11012,7 +11120,7 @@
         <v>909</v>
       </c>
       <c r="B909" t="s">
-        <v>1029</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -11020,7 +11128,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="s">
-        <v>1003</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -11028,7 +11136,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="s">
-        <v>1078</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -11036,7 +11144,7 @@
         <v>912</v>
       </c>
       <c r="B912" t="s">
-        <v>1029</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -11044,7 +11152,7 @@
         <v>913</v>
       </c>
       <c r="B913" t="s">
-        <v>977</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -11052,7 +11160,7 @@
         <v>914</v>
       </c>
       <c r="B914" t="s">
-        <v>1082</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -11060,7 +11168,7 @@
         <v>915</v>
       </c>
       <c r="B915" t="s">
-        <v>1101</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -11068,7 +11176,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="s">
-        <v>1102</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -11076,7 +11184,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="s">
-        <v>1009</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -11084,7 +11192,7 @@
         <v>918</v>
       </c>
       <c r="B918" t="s">
-        <v>1103</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -11092,7 +11200,7 @@
         <v>919</v>
       </c>
       <c r="B919" t="s">
-        <v>1012</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -11100,7 +11208,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -11108,7 +11216,7 @@
         <v>921</v>
       </c>
       <c r="B921" t="s">
-        <v>1104</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -11116,7 +11224,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -11124,7 +11232,7 @@
         <v>923</v>
       </c>
       <c r="B923" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -11132,7 +11240,7 @@
         <v>924</v>
       </c>
       <c r="B924" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -11140,7 +11248,7 @@
         <v>925</v>
       </c>
       <c r="B925" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -11148,7 +11256,7 @@
         <v>926</v>
       </c>
       <c r="B926" t="s">
-        <v>1014</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -11156,7 +11264,7 @@
         <v>927</v>
       </c>
       <c r="B927" t="s">
-        <v>1026</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -11164,7 +11272,7 @@
         <v>928</v>
       </c>
       <c r="B928" t="s">
-        <v>1106</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -11172,7 +11280,7 @@
         <v>929</v>
       </c>
       <c r="B929" t="s">
-        <v>997</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -11180,7 +11288,7 @@
         <v>930</v>
       </c>
       <c r="B930" t="s">
-        <v>984</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -11188,7 +11296,7 @@
         <v>931</v>
       </c>
       <c r="B931" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -11196,7 +11304,7 @@
         <v>932</v>
       </c>
       <c r="B932" t="s">
-        <v>1078</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -11204,7 +11312,7 @@
         <v>933</v>
       </c>
       <c r="B933" t="s">
-        <v>982</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -11212,7 +11320,7 @@
         <v>934</v>
       </c>
       <c r="B934" t="s">
-        <v>1051</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -11220,7 +11328,7 @@
         <v>935</v>
       </c>
       <c r="B935" t="s">
-        <v>1096</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -11228,7 +11336,7 @@
         <v>936</v>
       </c>
       <c r="B936" t="s">
-        <v>1107</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -11236,7 +11344,7 @@
         <v>937</v>
       </c>
       <c r="B937" t="s">
-        <v>1008</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -11244,7 +11352,7 @@
         <v>938</v>
       </c>
       <c r="B938" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -11252,7 +11360,7 @@
         <v>939</v>
       </c>
       <c r="B939" t="s">
-        <v>1001</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -11260,7 +11368,7 @@
         <v>940</v>
       </c>
       <c r="B940" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -11268,7 +11376,7 @@
         <v>941</v>
       </c>
       <c r="B941" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -11276,7 +11384,7 @@
         <v>942</v>
       </c>
       <c r="B942" t="s">
-        <v>989</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -11284,7 +11392,7 @@
         <v>943</v>
       </c>
       <c r="B943" t="s">
-        <v>1078</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -11292,7 +11400,7 @@
         <v>944</v>
       </c>
       <c r="B944" t="s">
-        <v>1093</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -11300,7 +11408,7 @@
         <v>945</v>
       </c>
       <c r="B945" t="s">
-        <v>1109</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -11308,7 +11416,7 @@
         <v>946</v>
       </c>
       <c r="B946" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -11316,7 +11424,7 @@
         <v>947</v>
       </c>
       <c r="B947" t="s">
-        <v>1001</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -11324,7 +11432,7 @@
         <v>948</v>
       </c>
       <c r="B948" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -11332,7 +11440,7 @@
         <v>949</v>
       </c>
       <c r="B949" t="s">
-        <v>978</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -11340,7 +11448,7 @@
         <v>950</v>
       </c>
       <c r="B950" t="s">
-        <v>1110</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -11348,7 +11456,7 @@
         <v>951</v>
       </c>
       <c r="B951" t="s">
-        <v>997</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -11356,7 +11464,7 @@
         <v>952</v>
       </c>
       <c r="B952" t="s">
-        <v>1111</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -11364,7 +11472,7 @@
         <v>953</v>
       </c>
       <c r="B953" t="s">
-        <v>1112</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -11372,7 +11480,7 @@
         <v>954</v>
       </c>
       <c r="B954" t="s">
-        <v>1008</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -11380,7 +11488,7 @@
         <v>955</v>
       </c>
       <c r="B955" t="s">
-        <v>1113</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -11388,7 +11496,7 @@
         <v>956</v>
       </c>
       <c r="B956" t="s">
-        <v>982</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -11396,7 +11504,7 @@
         <v>957</v>
       </c>
       <c r="B957" t="s">
-        <v>1114</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -11404,7 +11512,7 @@
         <v>958</v>
       </c>
       <c r="B958" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -11412,7 +11520,7 @@
         <v>959</v>
       </c>
       <c r="B959" t="s">
-        <v>1115</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -11420,7 +11528,7 @@
         <v>960</v>
       </c>
       <c r="B960" t="s">
-        <v>1001</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -11428,7 +11536,7 @@
         <v>961</v>
       </c>
       <c r="B961" t="s">
-        <v>1001</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -11436,7 +11544,7 @@
         <v>962</v>
       </c>
       <c r="B962" t="s">
-        <v>984</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -11444,7 +11552,7 @@
         <v>963</v>
       </c>
       <c r="B963" t="s">
-        <v>1058</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -11452,7 +11560,7 @@
         <v>964</v>
       </c>
       <c r="B964" t="s">
-        <v>1065</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -11460,7 +11568,7 @@
         <v>965</v>
       </c>
       <c r="B965" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -11468,7 +11576,7 @@
         <v>966</v>
       </c>
       <c r="B966" t="s">
-        <v>1117</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -11476,7 +11584,7 @@
         <v>967</v>
       </c>
       <c r="B967" t="s">
-        <v>1069</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -11484,7 +11592,7 @@
         <v>968</v>
       </c>
       <c r="B968" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -11492,7 +11600,7 @@
         <v>969</v>
       </c>
       <c r="B969" t="s">
-        <v>1118</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -11500,7 +11608,7 @@
         <v>970</v>
       </c>
       <c r="B970" t="s">
-        <v>1119</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -11508,7 +11616,271 @@
         <v>971</v>
       </c>
       <c r="B971" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" t="s">
+        <v>972</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" t="s">
+        <v>973</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" t="s">
+        <v>974</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" t="s">
+        <v>975</v>
+      </c>
+      <c r="B975" t="s">
         <v>1015</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" t="s">
+        <v>976</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" t="s">
+        <v>977</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" t="s">
+        <v>978</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" t="s">
+        <v>979</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" t="s">
+        <v>980</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" t="s">
+        <v>981</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" t="s">
+        <v>982</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" t="s">
+        <v>983</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" t="s">
+        <v>984</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" t="s">
+        <v>985</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" t="s">
+        <v>986</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" t="s">
+        <v>987</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" t="s">
+        <v>988</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" t="s">
+        <v>989</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" t="s">
+        <v>990</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" t="s">
+        <v>991</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" t="s">
+        <v>992</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" t="s">
+        <v>993</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" t="s">
+        <v>994</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" t="s">
+        <v>995</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" t="s">
+        <v>996</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" t="s">
+        <v>997</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" t="s">
+        <v>998</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" t="s">
+        <v>999</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1117</v>
       </c>
     </row>
   </sheetData>

--- a/libs/sinonimos.xlsx
+++ b/libs/sinonimos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1249">
   <si>
     <t>Nome Original</t>
   </si>
@@ -1323,6 +1323,64 @@
     <t>TB STB FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO DE ACOES  BDR NIVEL I</t>
   </si>
   <si>
+    <t xml:space="preserve">SANTANDER CASH BLACK II CLASSE DE INVESTIMENTO RENDA FIXA REFERENCIADO DI - RESP LIMITADA_x000D_
+</t>
+  </si>
+  <si>
+    <t>SANTANDER CASH BLACK II CLASSE DE  INVESTIMENTO RENDA FIXA REFERENCIADO DI - RESP LIMITADA</t>
+  </si>
+  <si>
+    <t>KAPITALO K10 ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>BTG PACTUAL S&amp;P 500 BRL FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>NEO PROVECTUS II A FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>ACUTO INSTITUCIONAL FUNDO DE INVESTIMENTO FINANCEIRO EM AÇÕES - RESPONSABILIDADE LIMITADA</t>
+  </si>
+  <si>
+    <t>MAGNUS VALOR FI EM COTAS DE FUNDOS DE INVESTIMENTO EM AÇÕES RESPONSABILIDADE LIMITADA</t>
+  </si>
+  <si>
+    <t>AMW CASH CLASH FUNDO DE INVESTIMENTO RENDA FIXA LONGO PRAZO</t>
+  </si>
+  <si>
+    <t>DYNA VI FUNDO DE INVESTIMENTO EM PARTICIPAÇÕES - MULTIESTRATÉGIA</t>
+  </si>
+  <si>
+    <t>GENOA CAPITAL VESTAS V FIC FIM</t>
+  </si>
+  <si>
+    <t>NEO PROVECTUS I A FIF CIC MULT - RESP LIMITADA</t>
+  </si>
+  <si>
+    <t>G5 F GENOA CAPITAL VESTAS FI EM COTAS DE FI MULTIMERCADO RESPONSABILIDADE LIMITADA</t>
+  </si>
+  <si>
+    <t>AMW BRASIL FUNDO DE INVESTIMENTO EM AÇÕES</t>
+  </si>
+  <si>
+    <t>GALAPAGOS FRONTIER AÇÕES FC</t>
+  </si>
+  <si>
+    <t>KAPITALO ZETA W FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>G5 F IBIUNA ST PLUS FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>OCEANA EQUITY HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO EM AÇÕES</t>
+  </si>
+  <si>
+    <t>RADAR FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO DE ACOES 360</t>
+  </si>
+  <si>
+    <t>IBIUNA HEDGE ST PLUS</t>
+  </si>
+  <si>
     <t>3G RADAR MASTER FUNDO DE INVESTIMENTO DE AÇÕES</t>
   </si>
   <si>
@@ -1897,6 +1955,18 @@
 </t>
   </si>
   <si>
+    <t>NEO PROVECTUS II FUNDO DE INVESTIMENTO MULTIMERCADO</t>
+  </si>
+  <si>
+    <t>GALAPAGOS FRONTIER MASTER FI AÇÕES</t>
+  </si>
+  <si>
+    <t>RADAR MASTER FI AÇÕES</t>
+  </si>
+  <si>
+    <t>IBIUNA ST PLUS MASTER FIF MULTIMERCADO</t>
+  </si>
+  <si>
     <t>36.436.936/0001-07</t>
   </si>
   <si>
@@ -3172,6 +3242,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">42.848.049/0001-49_x000D_
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">37.128.202/0001-23_x000D_
 </t>
   </si>
@@ -3180,6 +3254,54 @@
 </t>
   </si>
   <si>
+    <t>33.520.968/0001-06</t>
+  </si>
+  <si>
+    <t>36.499.594/0001-74</t>
+  </si>
+  <si>
+    <t>52.306.384/0001-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.904.799/0001-07_x000D_
+</t>
+  </si>
+  <si>
+    <t>52.817.512/0001-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.550.188/0001-91_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.652.687/0001-12_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.995.429/0001-92_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.740.225/0001-03_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.600.352/0001-07_x000D_
+</t>
+  </si>
+  <si>
+    <t>18.832.871/0001-37</t>
+  </si>
+  <si>
+    <t>53.192.888/0001-78</t>
+  </si>
+  <si>
+    <t>28.777.460/0001-40</t>
+  </si>
+  <si>
+    <t>54.409.143/0001-80</t>
+  </si>
+  <si>
     <t>3G Radar</t>
   </si>
   <si>
@@ -3642,6 +3764,24 @@
   </si>
   <si>
     <t>Absoluto Partners</t>
+  </si>
+  <si>
+    <t>BTG S&amp;P500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acuto </t>
+  </si>
+  <si>
+    <t>AWM Brasil</t>
+  </si>
+  <si>
+    <t>Galapagos Frontier</t>
+  </si>
+  <si>
+    <t>Ibiuna Hedge ST Plus</t>
+  </si>
+  <si>
+    <t>Oceana Equity Hedge</t>
   </si>
   <si>
     <t>Neo Future</t>
@@ -4002,7 +4142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1049"/>
+  <dimension ref="A1:B1087"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4021,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1050</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4029,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1051</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4037,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>1052</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4045,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4053,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1054</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4061,7 +4201,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4069,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1054</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4077,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4085,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4093,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4101,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4109,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>1056</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4117,7 +4257,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>1056</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4125,7 +4265,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>1057</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4133,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4141,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4149,7 +4289,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4157,7 +4297,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>1060</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4165,7 +4305,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4173,7 +4313,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4181,7 +4321,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4189,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4197,7 +4337,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4205,7 +4345,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4213,7 +4353,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4221,7 +4361,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4229,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4237,7 +4377,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4245,7 +4385,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4253,7 +4393,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4261,7 +4401,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4269,7 +4409,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>1062</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4277,7 +4417,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4285,7 +4425,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4293,7 +4433,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4301,7 +4441,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4309,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4317,7 +4457,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4325,7 +4465,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4333,7 +4473,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1064</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4341,7 +4481,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1064</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4349,7 +4489,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>1064</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4357,7 +4497,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>1064</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4365,7 +4505,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4373,7 +4513,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1065</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4381,7 +4521,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4389,7 +4529,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4397,7 +4537,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4405,7 +4545,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4413,7 +4553,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4421,7 +4561,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4429,7 +4569,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>1067</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4437,7 +4577,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>1068</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4445,7 +4585,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4453,7 +4593,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4461,7 +4601,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4469,7 +4609,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4477,7 +4617,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4485,7 +4625,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4493,7 +4633,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>1070</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4501,7 +4641,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>1070</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4509,7 +4649,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>1071</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4517,7 +4657,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>1072</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4525,7 +4665,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>1073</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4533,7 +4673,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>1073</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4541,7 +4681,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>1074</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4549,7 +4689,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>1075</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4557,7 +4697,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>1076</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4565,7 +4705,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>1077</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4573,7 +4713,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>1062</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4581,7 +4721,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4589,7 +4729,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4597,7 +4737,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4605,7 +4745,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4613,7 +4753,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4621,7 +4761,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4629,7 +4769,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4637,7 +4777,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4645,7 +4785,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4653,7 +4793,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4661,7 +4801,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4669,7 +4809,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4677,7 +4817,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4685,7 +4825,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4693,7 +4833,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4701,7 +4841,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4709,7 +4849,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4717,7 +4857,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4725,7 +4865,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4733,7 +4873,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4741,7 +4881,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4749,7 +4889,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>1081</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4757,7 +4897,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>1082</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4765,7 +4905,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>1083</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4773,7 +4913,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4781,7 +4921,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4789,7 +4929,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4797,7 +4937,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4805,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4813,7 +4953,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>1086</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4821,7 +4961,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>1087</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4829,7 +4969,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>1087</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4837,7 +4977,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>1088</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4845,7 +4985,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>1088</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4853,7 +4993,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4861,7 +5001,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>1090</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4869,7 +5009,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>1091</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4877,7 +5017,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>1092</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4885,7 +5025,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4893,7 +5033,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4901,7 +5041,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>1094</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4909,7 +5049,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4917,7 +5057,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4925,7 +5065,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>1096</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4933,7 +5073,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>1097</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4941,7 +5081,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>1098</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4949,7 +5089,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>1099</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4957,7 +5097,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>1100</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4965,7 +5105,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4973,7 +5113,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4981,7 +5121,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>1101</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4989,7 +5129,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4997,7 +5137,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>1102</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5005,7 +5145,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>1103</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5013,7 +5153,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>1103</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5021,7 +5161,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5029,7 +5169,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5037,7 +5177,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5045,7 +5185,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5053,7 +5193,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>1104</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5061,7 +5201,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>1104</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5069,7 +5209,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5077,7 +5217,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>1106</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5085,7 +5225,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>1107</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5093,7 +5233,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>1107</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5101,7 +5241,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>1108</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5109,7 +5249,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>1109</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5117,7 +5257,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>1110</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5125,7 +5265,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5133,7 +5273,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>1112</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5141,7 +5281,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>1112</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5149,7 +5289,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>1113</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5157,7 +5297,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>1113</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5165,7 +5305,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>1113</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5173,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>1113</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5181,7 +5321,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>1114</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5189,7 +5329,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>1115</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5197,7 +5337,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>1115</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5205,7 +5345,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>1115</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5213,7 +5353,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>1115</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5221,7 +5361,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>1115</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5229,7 +5369,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>1116</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5237,7 +5377,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>1117</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5245,7 +5385,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>1118</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5253,7 +5393,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5261,7 +5401,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5269,7 +5409,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5277,7 +5417,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5285,7 +5425,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5293,7 +5433,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>1119</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5301,7 +5441,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>1119</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5309,7 +5449,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>1120</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5317,7 +5457,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>1120</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5325,7 +5465,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>1120</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5333,7 +5473,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>1121</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5341,7 +5481,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>1122</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5349,7 +5489,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5357,7 +5497,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5365,7 +5505,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5373,7 +5513,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5381,7 +5521,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>1123</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5389,7 +5529,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>1124</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5397,7 +5537,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>1125</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5405,7 +5545,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>1125</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5413,7 +5553,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>1125</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5421,7 +5561,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>1126</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5429,7 +5569,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>1127</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5437,7 +5577,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5445,7 +5585,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5453,7 +5593,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5461,7 +5601,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5469,7 +5609,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5477,7 +5617,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>1129</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5485,7 +5625,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5493,7 +5633,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5501,7 +5641,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5509,7 +5649,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>1130</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5517,7 +5657,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5525,7 +5665,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>1131</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5533,7 +5673,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>1132</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5541,7 +5681,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>1132</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5549,7 +5689,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>1132</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5557,7 +5697,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>1132</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5565,7 +5705,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5573,7 +5713,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5581,7 +5721,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5589,7 +5729,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5597,7 +5737,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5605,7 +5745,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5613,7 +5753,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5621,7 +5761,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5629,7 +5769,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>1133</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5637,7 +5777,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>1134</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5645,7 +5785,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>1134</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5653,7 +5793,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>1135</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5661,7 +5801,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>1136</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5669,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>1137</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5677,7 +5817,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>1137</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5685,7 +5825,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>1138</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5693,7 +5833,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>1138</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5701,7 +5841,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>1139</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5709,7 +5849,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>1139</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5717,7 +5857,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>1140</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5725,7 +5865,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5733,7 +5873,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>1142</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5741,7 +5881,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>1143</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5749,7 +5889,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>1143</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5757,7 +5897,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>1143</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5765,7 +5905,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>1144</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5773,7 +5913,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>1145</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5781,7 +5921,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>1090</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5789,7 +5929,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>1146</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5797,7 +5937,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>1147</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5805,7 +5945,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>1147</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5813,7 +5953,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>1147</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5821,7 +5961,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>1091</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5829,7 +5969,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>1148</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5837,7 +5977,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>1075</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5845,7 +5985,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5853,7 +5993,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>1149</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5861,7 +6001,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>1150</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5869,7 +6009,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>1151</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5877,7 +6017,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>1152</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5885,7 +6025,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>1152</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5893,7 +6033,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>1152</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5901,7 +6041,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>1152</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5909,7 +6049,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>1152</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5917,7 +6057,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5925,7 +6065,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5933,7 +6073,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>1153</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5941,7 +6081,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5949,7 +6089,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5957,7 +6097,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5965,7 +6105,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5973,7 +6113,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5981,7 +6121,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5989,7 +6129,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>1155</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5997,7 +6137,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>1101</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6005,7 +6145,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>1101</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6013,7 +6153,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>1156</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6021,7 +6161,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6029,7 +6169,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6037,7 +6177,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1157</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6045,7 +6185,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1157</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6053,7 +6193,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6061,7 +6201,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6069,7 +6209,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6077,7 +6217,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6085,7 +6225,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6093,7 +6233,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6101,7 +6241,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6109,7 +6249,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6117,7 +6257,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6125,7 +6265,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6133,7 +6273,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6141,7 +6281,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6149,7 +6289,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>1159</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6157,7 +6297,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>1160</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6165,7 +6305,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>1159</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6173,7 +6313,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>1159</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6181,7 +6321,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>1159</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6189,7 +6329,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>1161</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6197,7 +6337,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>1162</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6205,7 +6345,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>1162</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6213,7 +6353,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>1162</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6221,7 +6361,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>1163</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6229,7 +6369,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>1163</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6237,7 +6377,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>1164</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6245,7 +6385,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>1165</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6253,7 +6393,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1166</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6261,7 +6401,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6269,7 +6409,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6277,7 +6417,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6285,7 +6425,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6293,7 +6433,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6301,7 +6441,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1168</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6309,7 +6449,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1168</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6317,7 +6457,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6325,7 +6465,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6333,7 +6473,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6341,7 +6481,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6349,7 +6489,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6357,7 +6497,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1170</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6365,7 +6505,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>1171</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6373,7 +6513,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1171</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6381,7 +6521,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1102</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6389,7 +6529,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6397,7 +6537,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6405,7 +6545,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6413,7 +6553,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6421,7 +6561,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6429,7 +6569,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6437,7 +6577,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6445,7 +6585,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6453,7 +6593,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>1172</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6461,7 +6601,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>1172</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6469,7 +6609,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1172</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6477,7 +6617,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>1172</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6485,7 +6625,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1173</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6493,7 +6633,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>1174</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -6501,7 +6641,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>1174</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6509,7 +6649,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>1175</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6517,7 +6657,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>1175</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6525,7 +6665,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>1175</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6533,7 +6673,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>1096</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6541,7 +6681,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>1176</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6549,7 +6689,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -6557,7 +6697,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>1075</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -6565,7 +6705,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6573,7 +6713,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>1071</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -6581,7 +6721,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>1082</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6589,7 +6729,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>1117</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -6597,7 +6737,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -6605,7 +6745,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -6613,7 +6753,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>1119</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -6621,7 +6761,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -6629,7 +6769,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6637,7 +6777,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6645,7 +6785,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -6653,7 +6793,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>1054</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6661,7 +6801,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6669,7 +6809,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>1177</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6677,7 +6817,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>1178</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6685,7 +6825,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>1086</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6693,7 +6833,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>1179</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6701,7 +6841,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6709,7 +6849,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>1180</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6717,7 +6857,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6725,7 +6865,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>1125</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6733,7 +6873,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>1181</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6741,7 +6881,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>1102</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6749,7 +6889,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>1090</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6757,7 +6897,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>1102</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6765,7 +6905,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>1182</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6773,7 +6913,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>1183</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6781,7 +6921,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6789,7 +6929,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>1118</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6797,7 +6937,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6805,7 +6945,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6813,7 +6953,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>1127</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6821,7 +6961,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>1172</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6829,7 +6969,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>1184</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6837,7 +6977,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6845,7 +6985,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6853,7 +6993,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6861,7 +7001,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1185</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6869,7 +7009,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1132</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6877,7 +7017,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6885,7 +7025,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1154</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6893,7 +7033,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6901,7 +7041,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1186</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6909,7 +7049,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6917,7 +7057,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6925,7 +7065,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1056</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6933,7 +7073,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6941,7 +7081,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1187</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6949,7 +7089,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1183</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6957,7 +7097,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>1188</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6965,7 +7105,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>1189</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6973,7 +7113,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6981,7 +7121,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1190</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6989,7 +7129,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6997,7 +7137,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1191</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7005,7 +7145,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1114</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7013,7 +7153,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1192</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7021,7 +7161,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -7029,7 +7169,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7037,7 +7177,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7045,7 +7185,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1134</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7053,7 +7193,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1141</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7061,7 +7201,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1193</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7069,7 +7209,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7077,7 +7217,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1145</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7085,7 +7225,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1101</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7093,7 +7233,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1194</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -7101,7 +7241,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1195</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7109,7 +7249,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>1091</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -7117,7 +7257,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -7125,7 +7265,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1194</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -7133,7 +7273,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>1101</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -7141,7 +7281,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1196</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7149,7 +7289,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -7157,7 +7297,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -7165,7 +7305,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1075</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -7173,7 +7313,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -7181,7 +7321,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>1090</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -7189,7 +7329,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>1056</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7197,7 +7337,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1197</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -7205,7 +7345,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7213,7 +7353,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1124</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -7221,7 +7361,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1160</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7229,7 +7369,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1198</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -7237,7 +7377,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -7245,7 +7385,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7253,7 +7393,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -7261,7 +7401,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -7269,7 +7409,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7277,7 +7417,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7285,7 +7425,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -7293,7 +7433,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1199</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7301,7 +7441,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -7309,7 +7449,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1162</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7317,7 +7457,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>1200</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7325,7 +7465,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>1201</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7333,7 +7473,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>1202</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7341,7 +7481,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>1200</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7349,7 +7489,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7357,7 +7497,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>1203</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7365,7 +7505,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>1104</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7373,7 +7513,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>1164</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7381,7 +7521,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7389,7 +7529,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7397,7 +7537,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>1074</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7405,7 +7545,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7413,7 +7553,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>1164</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7421,7 +7561,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>1074</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7429,7 +7569,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>1202</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7437,7 +7577,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -7445,7 +7585,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>1074</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7453,7 +7593,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>1200</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -7461,7 +7601,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -7469,7 +7609,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>1164</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -7477,7 +7617,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1050</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -7485,7 +7625,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1051</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7493,7 +7633,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1052</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -7501,7 +7641,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>1053</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7509,7 +7649,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1054</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -7517,7 +7657,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1055</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7525,7 +7665,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1055</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -7533,7 +7673,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1056</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7541,7 +7681,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1056</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -7549,7 +7689,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1057</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -7557,7 +7697,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1058</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -7565,7 +7705,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>1059</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7573,7 +7713,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1060</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -7581,7 +7721,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1061</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -7589,7 +7729,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1061</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -7597,7 +7737,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1062</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -7605,7 +7745,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1063</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -7613,7 +7753,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1063</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -7621,7 +7761,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1063</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -7629,7 +7769,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1064</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -7637,7 +7777,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1064</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -7645,7 +7785,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1064</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -7653,7 +7793,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1064</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -7661,7 +7801,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1055</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -7669,7 +7809,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1065</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -7677,7 +7817,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1066</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -7685,7 +7825,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1066</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -7693,7 +7833,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1066</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -7701,7 +7841,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1067</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -7709,7 +7849,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1068</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7717,7 +7857,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>1069</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -7725,7 +7865,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1069</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -7733,7 +7873,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1069</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -7741,7 +7881,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1070</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -7749,7 +7889,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1070</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -7757,7 +7897,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1071</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -7765,7 +7905,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1072</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -7773,7 +7913,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -7781,7 +7921,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -7789,7 +7929,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7797,7 +7937,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1061</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7805,7 +7945,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -7813,7 +7953,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -7821,7 +7961,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7829,7 +7969,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7837,7 +7977,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7845,7 +7985,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7853,7 +7993,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -7861,7 +8001,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -7869,7 +8009,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7877,7 +8017,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -7885,7 +8025,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7893,7 +8033,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7901,7 +8041,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -7909,7 +8049,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7917,7 +8057,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -7925,7 +8065,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7933,7 +8073,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7941,7 +8081,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7949,7 +8089,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7957,7 +8097,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7965,7 +8105,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7973,7 +8113,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>1118</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7981,7 +8121,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>1084</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7989,7 +8129,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>1084</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7997,7 +8137,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>1119</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -8005,7 +8145,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>1119</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -8013,7 +8153,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>1120</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -8021,7 +8161,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>1121</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -8029,7 +8169,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>1122</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -8037,7 +8177,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -8045,7 +8185,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>1078</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -8053,7 +8193,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>1078</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -8061,7 +8201,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>1123</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -8069,7 +8209,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>1124</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -8077,7 +8217,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -8085,7 +8225,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>1179</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -8093,7 +8233,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>1127</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -8101,7 +8241,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>1196</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -8109,7 +8249,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>1129</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -8117,7 +8257,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>1128</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -8125,7 +8265,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>1128</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -8133,7 +8273,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -8141,7 +8281,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>1063</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -8149,7 +8289,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>1131</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -8157,7 +8297,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -8165,7 +8305,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>1132</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -8173,7 +8313,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>1089</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -8181,7 +8321,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>1089</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -8189,7 +8329,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -8197,7 +8337,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -8205,7 +8345,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -8213,7 +8353,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>1136</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -8221,7 +8361,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>1137</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -8229,7 +8369,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>1137</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -8237,7 +8377,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>1138</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -8245,7 +8385,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>1139</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -8253,7 +8393,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>1140</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -8261,7 +8401,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>1141</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -8269,7 +8409,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>1142</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -8277,7 +8417,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>1204</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -8285,7 +8425,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>1143</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -8293,7 +8433,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>1144</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -8301,7 +8441,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>1145</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -8309,7 +8449,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>1090</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -8317,7 +8457,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>1146</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -8325,7 +8465,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -8333,7 +8473,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>1091</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -8341,7 +8481,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -8349,7 +8489,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>1075</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -8357,7 +8497,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>1095</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -8365,7 +8505,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>1149</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -8373,7 +8513,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>1150</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -8381,7 +8521,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>1151</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -8389,7 +8529,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>1152</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -8397,7 +8537,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>1152</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -8405,7 +8545,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>1093</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -8413,7 +8553,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>1093</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -8421,7 +8561,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>1153</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -8429,7 +8569,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>1154</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -8437,7 +8577,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -8445,7 +8585,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>1155</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -8453,7 +8593,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>1101</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -8461,7 +8601,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>1156</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -8469,7 +8609,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>1105</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -8477,7 +8617,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>1105</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -8485,7 +8625,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>1157</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -8493,7 +8633,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -8501,7 +8641,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>1141</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -8509,7 +8649,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -8517,7 +8657,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>1158</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -8525,7 +8665,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>1158</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -8533,7 +8673,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>1159</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -8541,7 +8681,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>1160</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -8549,7 +8689,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>1159</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -8557,7 +8697,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>1161</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -8565,7 +8705,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>1162</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -8573,7 +8713,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>1163</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -8581,7 +8721,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>1164</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -8589,7 +8729,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>1165</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -8597,7 +8737,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>1166</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -8605,7 +8745,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>1158</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -8613,7 +8753,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>1167</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -8621,7 +8761,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -8629,7 +8769,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -8637,7 +8777,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>1078</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -8645,7 +8785,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>1168</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -8653,7 +8793,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -8661,7 +8801,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -8669,7 +8809,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -8677,7 +8817,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8685,7 +8825,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>1170</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -8693,7 +8833,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>1171</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -8701,7 +8841,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>1102</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -8709,7 +8849,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>1095</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -8717,7 +8857,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>1095</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -8725,7 +8865,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>1095</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -8733,7 +8873,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>1095</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -8741,7 +8881,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>1095</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8749,7 +8889,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>1172</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -8757,7 +8897,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>1173</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -8765,7 +8905,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>1174</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8773,7 +8913,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>1175</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -8781,7 +8921,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>1096</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -8789,7 +8929,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>1176</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -8797,7 +8937,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>1086</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8805,7 +8945,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>1181</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8813,7 +8953,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>1102</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -8821,7 +8961,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>1182</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8829,7 +8969,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>1183</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8837,7 +8977,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>1184</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -8845,7 +8985,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8853,7 +8993,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8861,7 +9001,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>1056</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8869,7 +9009,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>1055</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8877,7 +9017,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>1187</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -8885,7 +9025,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>1188</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8893,7 +9033,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>1189</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8901,7 +9041,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -8909,7 +9049,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -8917,7 +9057,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>1191</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -8925,7 +9065,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>1192</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8933,7 +9073,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>1078</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8941,7 +9081,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>1078</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8949,7 +9089,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8957,7 +9097,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>1095</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -8965,7 +9105,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>1194</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8973,7 +9113,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>1075</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8981,7 +9121,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>1056</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8989,7 +9129,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>1197</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8997,7 +9137,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>1198</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -9005,7 +9145,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>1050</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -9013,7 +9153,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>1051</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -9021,7 +9161,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>1052</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -9029,7 +9169,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>1053</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -9037,7 +9177,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>1054</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -9045,7 +9185,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>1054</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -9053,7 +9193,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -9061,7 +9201,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>1055</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -9069,7 +9209,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>1055</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -9077,7 +9217,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>1055</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -9085,7 +9225,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>1055</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -9093,7 +9233,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>1056</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -9101,7 +9241,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>1056</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -9109,7 +9249,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>1057</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -9117,7 +9257,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="s">
-        <v>1058</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -9125,7 +9265,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>1058</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -9133,7 +9273,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>1059</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -9141,7 +9281,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>1060</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -9149,7 +9289,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>1061</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -9157,7 +9297,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>1061</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -9165,7 +9305,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>1061</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -9173,7 +9313,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -9181,7 +9321,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>1061</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -9189,7 +9329,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -9197,7 +9337,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>1061</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -9205,7 +9345,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>1061</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -9213,7 +9353,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>1061</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -9221,7 +9361,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>1061</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -9229,7 +9369,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>1061</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -9237,7 +9377,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>1061</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -9245,7 +9385,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>1061</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -9253,7 +9393,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>1062</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -9261,7 +9401,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>1063</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -9269,7 +9409,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>1063</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -9277,7 +9417,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>1063</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -9285,7 +9425,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>1063</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -9293,7 +9433,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>1063</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -9301,7 +9441,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -9309,7 +9449,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -9317,7 +9457,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>1064</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -9325,7 +9465,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>1064</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -9333,7 +9473,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>1064</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -9341,7 +9481,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>1064</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -9349,7 +9489,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>1055</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -9357,7 +9497,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>1065</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -9365,7 +9505,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -9373,7 +9513,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -9381,7 +9521,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -9389,7 +9529,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -9397,7 +9537,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -9405,7 +9545,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -9413,7 +9553,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>1067</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -9421,7 +9561,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>1068</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -9429,7 +9569,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>1069</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -9437,7 +9577,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>1069</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -9445,7 +9585,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -9453,7 +9593,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -9461,7 +9601,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -9469,7 +9609,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -9477,7 +9617,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -9485,7 +9625,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>1070</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -9493,7 +9633,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>1071</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -9501,7 +9641,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>1072</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -9509,7 +9649,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -9517,7 +9657,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -9525,7 +9665,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -9533,7 +9673,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -9541,7 +9681,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>1076</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -9549,7 +9689,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -9557,7 +9697,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>1062</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -9565,7 +9705,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -9573,7 +9713,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -9581,7 +9721,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -9589,7 +9729,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>1078</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -9597,7 +9737,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>1078</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -9605,7 +9745,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>1078</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -9613,7 +9753,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -9621,7 +9761,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -9629,7 +9769,7 @@
         <v>703</v>
       </c>
       <c r="B703" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -9637,7 +9777,7 @@
         <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -9645,7 +9785,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -9653,7 +9793,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -9661,7 +9801,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>1078</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -9669,7 +9809,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>1078</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -9677,7 +9817,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>1078</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -9685,7 +9825,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>1078</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -9693,7 +9833,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -9701,7 +9841,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -9709,7 +9849,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>1079</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -9717,7 +9857,7 @@
         <v>714</v>
       </c>
       <c r="B714" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -9725,7 +9865,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>1080</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -9733,7 +9873,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>1081</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -9741,7 +9881,7 @@
         <v>717</v>
       </c>
       <c r="B717" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -9749,7 +9889,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -9757,7 +9897,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>1084</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -9765,7 +9905,7 @@
         <v>720</v>
       </c>
       <c r="B720" t="s">
-        <v>1085</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -9773,7 +9913,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>1085</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -9781,7 +9921,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="s">
-        <v>1085</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -9789,7 +9929,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="s">
-        <v>1085</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -9797,7 +9937,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="s">
-        <v>1086</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -9805,7 +9945,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="s">
-        <v>1087</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -9813,7 +9953,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="s">
-        <v>1087</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -9821,7 +9961,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -9829,7 +9969,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -9837,7 +9977,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="s">
-        <v>1089</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -9845,7 +9985,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="s">
-        <v>1090</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -9853,7 +9993,7 @@
         <v>731</v>
       </c>
       <c r="B731" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -9861,7 +10001,7 @@
         <v>732</v>
       </c>
       <c r="B732" t="s">
-        <v>1092</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -9869,7 +10009,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -9877,7 +10017,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -9885,7 +10025,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="s">
-        <v>1094</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -9893,7 +10033,7 @@
         <v>736</v>
       </c>
       <c r="B736" t="s">
-        <v>1095</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -9901,7 +10041,7 @@
         <v>737</v>
       </c>
       <c r="B737" t="s">
-        <v>1095</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -9909,7 +10049,7 @@
         <v>738</v>
       </c>
       <c r="B738" t="s">
-        <v>1096</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -9917,7 +10057,7 @@
         <v>739</v>
       </c>
       <c r="B739" t="s">
-        <v>1097</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -9925,7 +10065,7 @@
         <v>740</v>
       </c>
       <c r="B740" t="s">
-        <v>1098</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -9933,7 +10073,7 @@
         <v>741</v>
       </c>
       <c r="B741" t="s">
-        <v>1099</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -9941,7 +10081,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="s">
-        <v>1100</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -9949,7 +10089,7 @@
         <v>743</v>
       </c>
       <c r="B743" t="s">
-        <v>1084</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -9957,7 +10097,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -9965,7 +10105,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="s">
-        <v>1101</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -9973,7 +10113,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="s">
-        <v>1055</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -9981,7 +10121,7 @@
         <v>747</v>
       </c>
       <c r="B747" t="s">
-        <v>1102</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9989,7 +10129,7 @@
         <v>748</v>
       </c>
       <c r="B748" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -9997,7 +10137,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -10005,7 +10145,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="s">
-        <v>1080</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -10013,7 +10153,7 @@
         <v>751</v>
       </c>
       <c r="B751" t="s">
-        <v>1080</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -10021,7 +10161,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -10029,7 +10169,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="s">
-        <v>1080</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -10037,7 +10177,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="s">
-        <v>1104</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -10045,7 +10185,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="s">
-        <v>1104</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -10053,7 +10193,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="s">
-        <v>1105</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -10061,7 +10201,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="s">
-        <v>1106</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -10069,7 +10209,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>1107</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -10077,7 +10217,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="s">
-        <v>1107</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -10085,7 +10225,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="s">
-        <v>1108</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -10093,7 +10233,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="s">
-        <v>1109</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -10101,7 +10241,7 @@
         <v>762</v>
       </c>
       <c r="B762" t="s">
-        <v>1110</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -10109,7 +10249,7 @@
         <v>763</v>
       </c>
       <c r="B763" t="s">
-        <v>1111</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -10117,7 +10257,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="s">
-        <v>1112</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -10125,7 +10265,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="s">
-        <v>1112</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -10133,7 +10273,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -10141,7 +10281,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="s">
-        <v>1113</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -10149,7 +10289,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="s">
-        <v>1113</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -10157,7 +10297,7 @@
         <v>769</v>
       </c>
       <c r="B769" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -10165,7 +10305,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="s">
-        <v>1114</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -10173,7 +10313,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="s">
-        <v>1115</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -10181,7 +10321,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="s">
-        <v>1115</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -10189,7 +10329,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -10197,7 +10337,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -10205,7 +10345,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -10213,7 +10353,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -10221,7 +10361,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="s">
-        <v>1117</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -10229,7 +10369,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="s">
-        <v>1118</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -10237,7 +10377,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="s">
-        <v>1084</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -10245,7 +10385,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="s">
-        <v>1084</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -10253,7 +10393,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="s">
-        <v>1084</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -10261,7 +10401,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="s">
-        <v>1084</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -10269,7 +10409,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="s">
-        <v>1084</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -10277,7 +10417,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -10285,7 +10425,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="s">
-        <v>1119</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -10293,7 +10433,7 @@
         <v>786</v>
       </c>
       <c r="B786" t="s">
-        <v>1120</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -10301,7 +10441,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="s">
-        <v>1120</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -10309,7 +10449,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="s">
-        <v>1120</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -10317,7 +10457,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="s">
-        <v>1121</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -10325,7 +10465,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="s">
-        <v>1122</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -10333,7 +10473,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="s">
-        <v>1078</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -10341,7 +10481,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="s">
-        <v>1078</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -10349,7 +10489,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="s">
-        <v>1078</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -10357,7 +10497,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="s">
-        <v>1078</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -10365,7 +10505,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="s">
-        <v>1123</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -10373,7 +10513,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -10381,7 +10521,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="s">
-        <v>1125</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -10389,7 +10529,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="s">
-        <v>1125</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -10397,7 +10537,7 @@
         <v>799</v>
       </c>
       <c r="B799" t="s">
-        <v>1125</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -10405,7 +10545,7 @@
         <v>800</v>
       </c>
       <c r="B800" t="s">
-        <v>1126</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -10413,7 +10553,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="s">
-        <v>1127</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -10421,7 +10561,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -10429,7 +10569,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -10437,7 +10577,7 @@
         <v>804</v>
       </c>
       <c r="B804" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -10445,7 +10585,7 @@
         <v>805</v>
       </c>
       <c r="B805" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -10453,7 +10593,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -10461,7 +10601,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="s">
-        <v>1129</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -10469,7 +10609,7 @@
         <v>808</v>
       </c>
       <c r="B808" t="s">
-        <v>1128</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -10477,7 +10617,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="s">
-        <v>1128</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -10485,7 +10625,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="s">
-        <v>1128</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -10493,7 +10633,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="s">
-        <v>1130</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -10501,7 +10641,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="s">
-        <v>1063</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -10509,7 +10649,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="s">
-        <v>1131</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -10517,7 +10657,7 @@
         <v>814</v>
       </c>
       <c r="B814" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -10525,7 +10665,7 @@
         <v>815</v>
       </c>
       <c r="B815" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -10533,7 +10673,7 @@
         <v>816</v>
       </c>
       <c r="B816" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -10541,7 +10681,7 @@
         <v>817</v>
       </c>
       <c r="B817" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -10549,7 +10689,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="s">
-        <v>1089</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -10557,7 +10697,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="s">
-        <v>1089</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -10565,7 +10705,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="s">
-        <v>1089</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -10573,7 +10713,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="s">
-        <v>1089</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -10581,7 +10721,7 @@
         <v>822</v>
       </c>
       <c r="B822" t="s">
-        <v>1089</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -10589,7 +10729,7 @@
         <v>823</v>
       </c>
       <c r="B823" t="s">
-        <v>1089</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -10597,7 +10737,7 @@
         <v>824</v>
       </c>
       <c r="B824" t="s">
-        <v>1089</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -10605,7 +10745,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="s">
-        <v>1089</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -10613,7 +10753,7 @@
         <v>826</v>
       </c>
       <c r="B826" t="s">
-        <v>1133</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -10621,7 +10761,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="s">
-        <v>1134</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -10629,7 +10769,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="s">
-        <v>1134</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -10637,7 +10777,7 @@
         <v>829</v>
       </c>
       <c r="B829" t="s">
-        <v>1135</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -10645,7 +10785,7 @@
         <v>830</v>
       </c>
       <c r="B830" t="s">
-        <v>1136</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -10653,7 +10793,7 @@
         <v>831</v>
       </c>
       <c r="B831" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -10661,7 +10801,7 @@
         <v>832</v>
       </c>
       <c r="B832" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -10669,7 +10809,7 @@
         <v>833</v>
       </c>
       <c r="B833" t="s">
-        <v>1138</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -10677,7 +10817,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="s">
-        <v>1138</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -10685,7 +10825,7 @@
         <v>835</v>
       </c>
       <c r="B835" t="s">
-        <v>1139</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -10693,7 +10833,7 @@
         <v>836</v>
       </c>
       <c r="B836" t="s">
-        <v>1139</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -10701,7 +10841,7 @@
         <v>837</v>
       </c>
       <c r="B837" t="s">
-        <v>1140</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -10709,7 +10849,7 @@
         <v>838</v>
       </c>
       <c r="B838" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -10717,7 +10857,7 @@
         <v>839</v>
       </c>
       <c r="B839" t="s">
-        <v>1142</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -10725,7 +10865,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="s">
-        <v>1143</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -10733,7 +10873,7 @@
         <v>841</v>
       </c>
       <c r="B841" t="s">
-        <v>1204</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -10741,7 +10881,7 @@
         <v>842</v>
       </c>
       <c r="B842" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -10749,7 +10889,7 @@
         <v>843</v>
       </c>
       <c r="B843" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -10757,7 +10897,7 @@
         <v>844</v>
       </c>
       <c r="B844" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -10765,7 +10905,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="s">
-        <v>1090</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -10773,7 +10913,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -10781,7 +10921,7 @@
         <v>847</v>
       </c>
       <c r="B847" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -10789,7 +10929,7 @@
         <v>848</v>
       </c>
       <c r="B848" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -10797,7 +10937,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="s">
-        <v>1147</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -10805,7 +10945,7 @@
         <v>850</v>
       </c>
       <c r="B850" t="s">
-        <v>1091</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -10813,7 +10953,7 @@
         <v>851</v>
       </c>
       <c r="B851" t="s">
-        <v>1148</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -10821,7 +10961,7 @@
         <v>852</v>
       </c>
       <c r="B852" t="s">
-        <v>1075</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -10829,7 +10969,7 @@
         <v>853</v>
       </c>
       <c r="B853" t="s">
-        <v>1095</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -10837,7 +10977,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="s">
-        <v>1149</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -10845,7 +10985,7 @@
         <v>855</v>
       </c>
       <c r="B855" t="s">
-        <v>1150</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -10853,7 +10993,7 @@
         <v>856</v>
       </c>
       <c r="B856" t="s">
-        <v>1151</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -10861,7 +11001,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="s">
-        <v>1152</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -10869,7 +11009,7 @@
         <v>858</v>
       </c>
       <c r="B858" t="s">
-        <v>1152</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -10877,7 +11017,7 @@
         <v>859</v>
       </c>
       <c r="B859" t="s">
-        <v>1152</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -10885,7 +11025,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="s">
-        <v>1152</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -10893,7 +11033,7 @@
         <v>861</v>
       </c>
       <c r="B861" t="s">
-        <v>1152</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -10901,7 +11041,7 @@
         <v>862</v>
       </c>
       <c r="B862" t="s">
-        <v>1093</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -10909,7 +11049,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="s">
-        <v>1093</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -10917,7 +11057,7 @@
         <v>864</v>
       </c>
       <c r="B864" t="s">
-        <v>1153</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -10925,7 +11065,7 @@
         <v>865</v>
       </c>
       <c r="B865" t="s">
-        <v>1154</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -10933,7 +11073,7 @@
         <v>866</v>
       </c>
       <c r="B866" t="s">
-        <v>1154</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -10941,7 +11081,7 @@
         <v>867</v>
       </c>
       <c r="B867" t="s">
-        <v>1154</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -10949,7 +11089,7 @@
         <v>868</v>
       </c>
       <c r="B868" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -10957,7 +11097,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="s">
-        <v>1154</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -10965,7 +11105,7 @@
         <v>870</v>
       </c>
       <c r="B870" t="s">
-        <v>1154</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -10973,7 +11113,7 @@
         <v>871</v>
       </c>
       <c r="B871" t="s">
-        <v>1155</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -10981,7 +11121,7 @@
         <v>872</v>
       </c>
       <c r="B872" t="s">
-        <v>1101</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -10989,7 +11129,7 @@
         <v>873</v>
       </c>
       <c r="B873" t="s">
-        <v>1101</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -10997,7 +11137,7 @@
         <v>874</v>
       </c>
       <c r="B874" t="s">
-        <v>1156</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -11005,7 +11145,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -11013,7 +11153,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="s">
-        <v>1105</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -11021,7 +11161,7 @@
         <v>877</v>
       </c>
       <c r="B877" t="s">
-        <v>1157</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -11029,7 +11169,7 @@
         <v>878</v>
       </c>
       <c r="B878" t="s">
-        <v>1157</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -11037,7 +11177,7 @@
         <v>879</v>
       </c>
       <c r="B879" t="s">
-        <v>1141</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -11045,7 +11185,7 @@
         <v>880</v>
       </c>
       <c r="B880" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -11053,7 +11193,7 @@
         <v>881</v>
       </c>
       <c r="B881" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -11061,7 +11201,7 @@
         <v>882</v>
       </c>
       <c r="B882" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -11069,7 +11209,7 @@
         <v>883</v>
       </c>
       <c r="B883" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -11077,7 +11217,7 @@
         <v>884</v>
       </c>
       <c r="B884" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -11085,7 +11225,7 @@
         <v>885</v>
       </c>
       <c r="B885" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -11093,7 +11233,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -11101,7 +11241,7 @@
         <v>887</v>
       </c>
       <c r="B887" t="s">
-        <v>1158</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -11109,7 +11249,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -11117,7 +11257,7 @@
         <v>889</v>
       </c>
       <c r="B889" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -11125,7 +11265,7 @@
         <v>890</v>
       </c>
       <c r="B890" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -11133,7 +11273,7 @@
         <v>891</v>
       </c>
       <c r="B891" t="s">
-        <v>1159</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -11141,7 +11281,7 @@
         <v>892</v>
       </c>
       <c r="B892" t="s">
-        <v>1160</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -11149,7 +11289,7 @@
         <v>893</v>
       </c>
       <c r="B893" t="s">
-        <v>1159</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -11157,7 +11297,7 @@
         <v>894</v>
       </c>
       <c r="B894" t="s">
-        <v>1159</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -11165,7 +11305,7 @@
         <v>895</v>
       </c>
       <c r="B895" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -11173,7 +11313,7 @@
         <v>896</v>
       </c>
       <c r="B896" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -11181,7 +11321,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="s">
-        <v>1162</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -11189,7 +11329,7 @@
         <v>898</v>
       </c>
       <c r="B898" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -11197,7 +11337,7 @@
         <v>899</v>
       </c>
       <c r="B899" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -11205,7 +11345,7 @@
         <v>900</v>
       </c>
       <c r="B900" t="s">
-        <v>1163</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -11213,7 +11353,7 @@
         <v>901</v>
       </c>
       <c r="B901" t="s">
-        <v>1163</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -11221,7 +11361,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -11229,7 +11369,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -11237,7 +11377,7 @@
         <v>904</v>
       </c>
       <c r="B904" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -11245,7 +11385,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="s">
-        <v>1158</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -11253,7 +11393,7 @@
         <v>906</v>
       </c>
       <c r="B906" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -11261,7 +11401,7 @@
         <v>907</v>
       </c>
       <c r="B907" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -11269,7 +11409,7 @@
         <v>908</v>
       </c>
       <c r="B908" t="s">
-        <v>1167</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -11277,7 +11417,7 @@
         <v>909</v>
       </c>
       <c r="B909" t="s">
-        <v>1078</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -11285,7 +11425,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="s">
-        <v>1168</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -11293,7 +11433,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="s">
-        <v>1168</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -11301,7 +11441,7 @@
         <v>912</v>
       </c>
       <c r="B912" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -11309,7 +11449,7 @@
         <v>913</v>
       </c>
       <c r="B913" t="s">
-        <v>1169</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -11317,7 +11457,7 @@
         <v>914</v>
       </c>
       <c r="B914" t="s">
-        <v>1169</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -11325,7 +11465,7 @@
         <v>915</v>
       </c>
       <c r="B915" t="s">
-        <v>1169</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -11333,7 +11473,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="s">
-        <v>1169</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -11341,7 +11481,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="s">
-        <v>1170</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -11349,7 +11489,7 @@
         <v>918</v>
       </c>
       <c r="B918" t="s">
-        <v>1171</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -11357,7 +11497,7 @@
         <v>919</v>
       </c>
       <c r="B919" t="s">
-        <v>1171</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -11365,7 +11505,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="s">
-        <v>1102</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -11373,7 +11513,7 @@
         <v>921</v>
       </c>
       <c r="B921" t="s">
-        <v>1095</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -11381,7 +11521,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="s">
-        <v>1095</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -11389,7 +11529,7 @@
         <v>923</v>
       </c>
       <c r="B923" t="s">
-        <v>1095</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -11397,7 +11537,7 @@
         <v>924</v>
       </c>
       <c r="B924" t="s">
-        <v>1095</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -11405,7 +11545,7 @@
         <v>925</v>
       </c>
       <c r="B925" t="s">
-        <v>1095</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -11413,7 +11553,7 @@
         <v>926</v>
       </c>
       <c r="B926" t="s">
-        <v>1095</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -11421,7 +11561,7 @@
         <v>927</v>
       </c>
       <c r="B927" t="s">
-        <v>1095</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -11429,7 +11569,7 @@
         <v>928</v>
       </c>
       <c r="B928" t="s">
-        <v>1095</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -11437,7 +11577,7 @@
         <v>929</v>
       </c>
       <c r="B929" t="s">
-        <v>1172</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -11445,7 +11585,7 @@
         <v>930</v>
       </c>
       <c r="B930" t="s">
-        <v>1172</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -11453,7 +11593,7 @@
         <v>931</v>
       </c>
       <c r="B931" t="s">
-        <v>1172</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -11461,7 +11601,7 @@
         <v>932</v>
       </c>
       <c r="B932" t="s">
-        <v>1172</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -11469,7 +11609,7 @@
         <v>933</v>
       </c>
       <c r="B933" t="s">
-        <v>1173</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -11477,7 +11617,7 @@
         <v>934</v>
       </c>
       <c r="B934" t="s">
-        <v>1174</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -11485,7 +11625,7 @@
         <v>935</v>
       </c>
       <c r="B935" t="s">
-        <v>1174</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -11493,7 +11633,7 @@
         <v>936</v>
       </c>
       <c r="B936" t="s">
-        <v>1175</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -11501,7 +11641,7 @@
         <v>937</v>
       </c>
       <c r="B937" t="s">
-        <v>1175</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -11509,7 +11649,7 @@
         <v>938</v>
       </c>
       <c r="B938" t="s">
-        <v>1175</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -11517,7 +11657,7 @@
         <v>939</v>
       </c>
       <c r="B939" t="s">
-        <v>1096</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -11525,7 +11665,7 @@
         <v>940</v>
       </c>
       <c r="B940" t="s">
-        <v>1176</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -11533,7 +11673,7 @@
         <v>941</v>
       </c>
       <c r="B941" t="s">
-        <v>1111</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -11541,7 +11681,7 @@
         <v>942</v>
       </c>
       <c r="B942" t="s">
-        <v>1075</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -11549,7 +11689,7 @@
         <v>943</v>
       </c>
       <c r="B943" t="s">
-        <v>1061</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -11557,7 +11697,7 @@
         <v>944</v>
       </c>
       <c r="B944" t="s">
-        <v>1071</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -11565,7 +11705,7 @@
         <v>945</v>
       </c>
       <c r="B945" t="s">
-        <v>1082</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -11573,7 +11713,7 @@
         <v>946</v>
       </c>
       <c r="B946" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -11581,7 +11721,7 @@
         <v>947</v>
       </c>
       <c r="B947" t="s">
-        <v>1093</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -11589,7 +11729,7 @@
         <v>948</v>
       </c>
       <c r="B948" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -11597,7 +11737,7 @@
         <v>949</v>
       </c>
       <c r="B949" t="s">
-        <v>1119</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -11605,7 +11745,7 @@
         <v>950</v>
       </c>
       <c r="B950" t="s">
-        <v>1105</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -11613,7 +11753,7 @@
         <v>951</v>
       </c>
       <c r="B951" t="s">
-        <v>1080</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -11621,7 +11761,7 @@
         <v>952</v>
       </c>
       <c r="B952" t="s">
-        <v>1154</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -11629,7 +11769,7 @@
         <v>953</v>
       </c>
       <c r="B953" t="s">
-        <v>1105</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -11637,7 +11777,7 @@
         <v>954</v>
       </c>
       <c r="B954" t="s">
-        <v>1054</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -11645,7 +11785,7 @@
         <v>955</v>
       </c>
       <c r="B955" t="s">
-        <v>1158</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -11653,7 +11793,7 @@
         <v>956</v>
       </c>
       <c r="B956" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -11661,7 +11801,7 @@
         <v>957</v>
       </c>
       <c r="B957" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -11669,7 +11809,7 @@
         <v>958</v>
       </c>
       <c r="B958" t="s">
-        <v>1086</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -11677,7 +11817,7 @@
         <v>959</v>
       </c>
       <c r="B959" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -11685,7 +11825,7 @@
         <v>960</v>
       </c>
       <c r="B960" t="s">
-        <v>1089</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -11693,7 +11833,7 @@
         <v>961</v>
       </c>
       <c r="B961" t="s">
-        <v>1180</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -11701,7 +11841,7 @@
         <v>962</v>
       </c>
       <c r="B962" t="s">
-        <v>1095</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -11709,7 +11849,7 @@
         <v>963</v>
       </c>
       <c r="B963" t="s">
-        <v>1125</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -11717,7 +11857,7 @@
         <v>964</v>
       </c>
       <c r="B964" t="s">
-        <v>1181</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -11725,7 +11865,7 @@
         <v>965</v>
       </c>
       <c r="B965" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -11733,7 +11873,7 @@
         <v>966</v>
       </c>
       <c r="B966" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -11741,7 +11881,7 @@
         <v>967</v>
       </c>
       <c r="B967" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -11749,7 +11889,7 @@
         <v>968</v>
       </c>
       <c r="B968" t="s">
-        <v>1182</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -11757,7 +11897,7 @@
         <v>969</v>
       </c>
       <c r="B969" t="s">
-        <v>1183</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -11765,7 +11905,7 @@
         <v>970</v>
       </c>
       <c r="B970" t="s">
-        <v>1061</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -11773,7 +11913,7 @@
         <v>971</v>
       </c>
       <c r="B971" t="s">
-        <v>1118</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -11781,7 +11921,7 @@
         <v>972</v>
       </c>
       <c r="B972" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -11789,7 +11929,7 @@
         <v>973</v>
       </c>
       <c r="B973" t="s">
-        <v>1059</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -11797,7 +11937,7 @@
         <v>974</v>
       </c>
       <c r="B974" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -11805,7 +11945,7 @@
         <v>975</v>
       </c>
       <c r="B975" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -11813,7 +11953,7 @@
         <v>976</v>
       </c>
       <c r="B976" t="s">
-        <v>1184</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -11821,7 +11961,7 @@
         <v>977</v>
       </c>
       <c r="B977" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -11829,7 +11969,7 @@
         <v>978</v>
       </c>
       <c r="B978" t="s">
-        <v>1128</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -11837,7 +11977,7 @@
         <v>979</v>
       </c>
       <c r="B979" t="s">
-        <v>1078</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -11845,7 +11985,7 @@
         <v>980</v>
       </c>
       <c r="B980" t="s">
-        <v>1185</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -11853,7 +11993,7 @@
         <v>981</v>
       </c>
       <c r="B981" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -11861,7 +12001,7 @@
         <v>982</v>
       </c>
       <c r="B982" t="s">
-        <v>1066</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -11869,7 +12009,7 @@
         <v>983</v>
       </c>
       <c r="B983" t="s">
-        <v>1154</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -11877,7 +12017,7 @@
         <v>984</v>
       </c>
       <c r="B984" t="s">
-        <v>1169</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -11885,7 +12025,7 @@
         <v>985</v>
       </c>
       <c r="B985" t="s">
-        <v>1186</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -11893,7 +12033,7 @@
         <v>986</v>
       </c>
       <c r="B986" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -11901,7 +12041,7 @@
         <v>987</v>
       </c>
       <c r="B987" t="s">
-        <v>1078</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -11909,7 +12049,7 @@
         <v>988</v>
       </c>
       <c r="B988" t="s">
-        <v>1056</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -11917,7 +12057,7 @@
         <v>989</v>
       </c>
       <c r="B989" t="s">
-        <v>1055</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -11925,7 +12065,7 @@
         <v>990</v>
       </c>
       <c r="B990" t="s">
-        <v>1187</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -11933,7 +12073,7 @@
         <v>991</v>
       </c>
       <c r="B991" t="s">
-        <v>1183</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -11941,7 +12081,7 @@
         <v>992</v>
       </c>
       <c r="B992" t="s">
-        <v>1188</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -11949,7 +12089,7 @@
         <v>993</v>
       </c>
       <c r="B993" t="s">
-        <v>1189</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -11957,7 +12097,7 @@
         <v>994</v>
       </c>
       <c r="B994" t="s">
-        <v>1085</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -11965,7 +12105,7 @@
         <v>995</v>
       </c>
       <c r="B995" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -11973,7 +12113,7 @@
         <v>996</v>
       </c>
       <c r="B996" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -11981,7 +12121,7 @@
         <v>997</v>
       </c>
       <c r="B997" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -11989,7 +12129,7 @@
         <v>998</v>
       </c>
       <c r="B998" t="s">
-        <v>1114</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -11997,7 +12137,7 @@
         <v>999</v>
       </c>
       <c r="B999" t="s">
-        <v>1192</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -12005,7 +12145,7 @@
         <v>1000</v>
       </c>
       <c r="B1000" t="s">
-        <v>1078</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -12013,7 +12153,7 @@
         <v>1001</v>
       </c>
       <c r="B1001" t="s">
-        <v>1078</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -12021,7 +12161,7 @@
         <v>1002</v>
       </c>
       <c r="B1002" t="s">
-        <v>1061</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -12029,7 +12169,7 @@
         <v>1003</v>
       </c>
       <c r="B1003" t="s">
-        <v>1134</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -12037,7 +12177,7 @@
         <v>1004</v>
       </c>
       <c r="B1004" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -12045,7 +12185,7 @@
         <v>1005</v>
       </c>
       <c r="B1005" t="s">
-        <v>1193</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -12053,7 +12193,7 @@
         <v>1006</v>
       </c>
       <c r="B1006" t="s">
-        <v>1145</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -12061,7 +12201,7 @@
         <v>1007</v>
       </c>
       <c r="B1007" t="s">
-        <v>1101</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -12069,7 +12209,7 @@
         <v>1008</v>
       </c>
       <c r="B1008" t="s">
-        <v>1194</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -12077,7 +12217,7 @@
         <v>1009</v>
       </c>
       <c r="B1009" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -12085,7 +12225,7 @@
         <v>1010</v>
       </c>
       <c r="B1010" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -12093,7 +12233,7 @@
         <v>1011</v>
       </c>
       <c r="B1011" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -12101,7 +12241,7 @@
         <v>1012</v>
       </c>
       <c r="B1012" t="s">
-        <v>1194</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -12109,7 +12249,7 @@
         <v>1013</v>
       </c>
       <c r="B1013" t="s">
-        <v>1101</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -12117,7 +12257,7 @@
         <v>1014</v>
       </c>
       <c r="B1014" t="s">
-        <v>1196</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -12125,7 +12265,7 @@
         <v>1015</v>
       </c>
       <c r="B1015" t="s">
-        <v>1089</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -12133,7 +12273,7 @@
         <v>1016</v>
       </c>
       <c r="B1016" t="s">
-        <v>1069</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -12141,7 +12281,7 @@
         <v>1017</v>
       </c>
       <c r="B1017" t="s">
-        <v>1075</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -12149,7 +12289,7 @@
         <v>1018</v>
       </c>
       <c r="B1018" t="s">
-        <v>1066</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -12157,7 +12297,7 @@
         <v>1019</v>
       </c>
       <c r="B1019" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -12165,7 +12305,7 @@
         <v>1020</v>
       </c>
       <c r="B1020" t="s">
-        <v>1056</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -12173,7 +12313,7 @@
         <v>1021</v>
       </c>
       <c r="B1021" t="s">
-        <v>1197</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -12181,7 +12321,7 @@
         <v>1022</v>
       </c>
       <c r="B1022" t="s">
-        <v>1158</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -12189,7 +12329,7 @@
         <v>1023</v>
       </c>
       <c r="B1023" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -12197,7 +12337,7 @@
         <v>1024</v>
       </c>
       <c r="B1024" t="s">
-        <v>1160</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -12205,7 +12345,7 @@
         <v>1025</v>
       </c>
       <c r="B1025" t="s">
-        <v>1198</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -12213,7 +12353,7 @@
         <v>1026</v>
       </c>
       <c r="B1026" t="s">
-        <v>1078</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -12221,7 +12361,7 @@
         <v>1027</v>
       </c>
       <c r="B1027" t="s">
-        <v>1078</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -12229,7 +12369,7 @@
         <v>1028</v>
       </c>
       <c r="B1028" t="s">
-        <v>1078</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -12237,7 +12377,7 @@
         <v>1029</v>
       </c>
       <c r="B1029" t="s">
-        <v>1078</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -12245,7 +12385,7 @@
         <v>1030</v>
       </c>
       <c r="B1030" t="s">
-        <v>1078</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -12253,7 +12393,7 @@
         <v>1031</v>
       </c>
       <c r="B1031" t="s">
-        <v>1078</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -12261,7 +12401,7 @@
         <v>1032</v>
       </c>
       <c r="B1032" t="s">
-        <v>1078</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -12269,7 +12409,7 @@
         <v>1033</v>
       </c>
       <c r="B1033" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -12277,7 +12417,7 @@
         <v>1034</v>
       </c>
       <c r="B1034" t="s">
-        <v>1078</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -12285,7 +12425,7 @@
         <v>1035</v>
       </c>
       <c r="B1035" t="s">
-        <v>1162</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -12293,7 +12433,7 @@
         <v>1036</v>
       </c>
       <c r="B1036" t="s">
-        <v>1200</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -12301,7 +12441,7 @@
         <v>1037</v>
       </c>
       <c r="B1037" t="s">
-        <v>1201</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -12309,7 +12449,7 @@
         <v>1038</v>
       </c>
       <c r="B1038" t="s">
-        <v>1202</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -12317,7 +12457,7 @@
         <v>1039</v>
       </c>
       <c r="B1039" t="s">
-        <v>1200</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -12325,7 +12465,7 @@
         <v>1040</v>
       </c>
       <c r="B1040" t="s">
-        <v>1078</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -12333,7 +12473,7 @@
         <v>1041</v>
       </c>
       <c r="B1041" t="s">
-        <v>1203</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -12341,7 +12481,7 @@
         <v>1042</v>
       </c>
       <c r="B1042" t="s">
-        <v>1104</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -12349,7 +12489,7 @@
         <v>1043</v>
       </c>
       <c r="B1043" t="s">
-        <v>1164</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -12357,7 +12497,7 @@
         <v>1044</v>
       </c>
       <c r="B1044" t="s">
-        <v>1078</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -12365,7 +12505,7 @@
         <v>1045</v>
       </c>
       <c r="B1045" t="s">
-        <v>1105</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -12373,7 +12513,7 @@
         <v>1046</v>
       </c>
       <c r="B1046" t="s">
-        <v>1074</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -12381,7 +12521,7 @@
         <v>1047</v>
       </c>
       <c r="B1047" t="s">
-        <v>1078</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -12389,7 +12529,7 @@
         <v>1048</v>
       </c>
       <c r="B1048" t="s">
-        <v>1074</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -12397,7 +12537,311 @@
         <v>1049</v>
       </c>
       <c r="B1049" t="s">
-        <v>1164</v>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="A1060" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="A1061" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="A1064" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="A1068" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="A1069" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2">
+      <c r="A1071" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="A1072" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2">
+      <c r="A1073" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="A1078" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="A1079" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="A1080" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
